--- a/word_features/季/ENG,2021-7~2021-12,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2021-7~2021-12,主题_词矩阵.xlsx
@@ -14,294 +14,519 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t>abdollahian</t>
-  </si>
-  <si>
-    <t>afghanistan</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>amir</t>
-  </si>
-  <si>
-    <t>amisom</t>
-  </si>
-  <si>
-    <t>anniversary</t>
-  </si>
-  <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>annually</t>
-  </si>
-  <si>
-    <t>arrangements</t>
-  </si>
-  <si>
-    <t>arrival</t>
-  </si>
-  <si>
-    <t>attracted</t>
-  </si>
-  <si>
-    <t>august</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>bilateral</t>
-  </si>
-  <si>
-    <t>bmw</t>
-  </si>
-  <si>
-    <t>car</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>accomplish</t>
+  </si>
+  <si>
+    <t>achiev</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>activ</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>advanc</t>
+  </si>
+  <si>
+    <t>advoc</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>agricultur</t>
+  </si>
+  <si>
+    <t>allevi</t>
+  </si>
+  <si>
+    <t>allround</t>
+  </si>
+  <si>
+    <t>alway</t>
+  </si>
+  <si>
+    <t>ancient</t>
+  </si>
+  <si>
+    <t>anniversari</t>
+  </si>
+  <si>
+    <t>apec</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>appreci</t>
+  </si>
+  <si>
+    <t>articl</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>asiapacif</t>
+  </si>
+  <si>
+    <t>aspir</t>
+  </si>
+  <si>
+    <t>assembl</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>balanc</t>
+  </si>
+  <si>
+    <t>basi</t>
+  </si>
+  <si>
+    <t>becom</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>benefici</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>bilater</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>blueprint</t>
+  </si>
+  <si>
+    <t>bolster</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>bri</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>bulli</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>capac</t>
   </si>
   <si>
     <t>carbon</t>
   </si>
   <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>children</t>
+    <t>carri</t>
+  </si>
+  <si>
+    <t>cdata</t>
+  </si>
+  <si>
+    <t>celebr</t>
+  </si>
+  <si>
+    <t>centenari</t>
+  </si>
+  <si>
+    <t>centuri</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>challeng</t>
+  </si>
+  <si>
+    <t>chang</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>chinairan</t>
-  </si>
-  <si>
-    <t>chinas</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>clearer</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>climaterelated</t>
-  </si>
-  <si>
-    <t>cnn</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>coast</t>
-  </si>
-  <si>
-    <t>colombo</t>
-  </si>
-  <si>
-    <t>commercial</t>
+    <t>chinaafrica</t>
+  </si>
+  <si>
+    <t>chinaasean</t>
+  </si>
+  <si>
+    <t>chinadaili</t>
+  </si>
+  <si>
+    <t>chinadailyandroidschemeencodeandroid</t>
+  </si>
+  <si>
+    <t>chinadailyiosschemeencodeio</t>
+  </si>
+  <si>
+    <t>chines</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>climat</t>
+  </si>
+  <si>
+    <t>closer</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>cnmobiledaili</t>
+  </si>
+  <si>
+    <t>coexist</t>
+  </si>
+  <si>
+    <t>collabor</t>
+  </si>
+  <si>
+    <t>commentchinadaili</t>
+  </si>
+  <si>
+    <t>commit</t>
   </si>
   <si>
     <t>common</t>
   </si>
   <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>contribution</t>
-  </si>
-  <si>
-    <t>conversation</t>
-  </si>
-  <si>
-    <t>cooperation</t>
-  </si>
-  <si>
-    <t>coordination</t>
-  </si>
-  <si>
-    <t>cop</t>
-  </si>
-  <si>
-    <t>coronavac</t>
-  </si>
-  <si>
-    <t>coronavirus</t>
-  </si>
-  <si>
-    <t>costs</t>
-  </si>
-  <si>
-    <t>council</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>covid</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>creating</t>
-  </si>
-  <si>
-    <t>dai</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>determination</t>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>directed</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>disclosures</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>editions</t>
-  </si>
-  <si>
-    <t>elections</t>
-  </si>
-  <si>
-    <t>electoral</t>
-  </si>
-  <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>employment</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>endurance</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>enthusiasts</t>
-  </si>
-  <si>
-    <t>envoy</t>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>communist</t>
+  </si>
+  <si>
+    <t>comosimpl</t>
+  </si>
+  <si>
+    <t>comprehens</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>concret</t>
+  </si>
+  <si>
+    <t>confid</t>
+  </si>
+  <si>
+    <t>confront</t>
+  </si>
+  <si>
+    <t>congratul</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>consensu</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>continu</t>
+  </si>
+  <si>
+    <t>contribut</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>coordin</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>councilor</t>
+  </si>
+  <si>
+    <t>countri</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>creat</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>cultur</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>decad</t>
+  </si>
+  <si>
+    <t>deepen</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>deliv</t>
+  </si>
+  <si>
+    <t>democraci</t>
+  </si>
+  <si>
+    <t>demonstr</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>dialogu</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>diplomat</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>distribut</t>
+  </si>
+  <si>
+    <t>divers</t>
+  </si>
+  <si>
+    <t>dynam</t>
+  </si>
+  <si>
+    <t>ecolog</t>
+  </si>
+  <si>
+    <t>ecommerc</t>
+  </si>
+  <si>
+    <t>econom</t>
+  </si>
+  <si>
+    <t>economi</t>
+  </si>
+  <si>
+    <t>ecosystem</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>els</t>
+  </si>
+  <si>
+    <t>emiss</t>
+  </si>
+  <si>
+    <t>energi</t>
+  </si>
+  <si>
+    <t>engag</t>
+  </si>
+  <si>
+    <t>enhanc</t>
+  </si>
+  <si>
+    <t>ensur</t>
+  </si>
+  <si>
+    <t>enterpris</t>
+  </si>
+  <si>
+    <t>environ</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>equit</t>
+  </si>
+  <si>
+    <t>equiti</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>erad</t>
   </si>
   <si>
     <t>establish</t>
   </si>
   <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>events</t>
+    <t>exampl</t>
+  </si>
+  <si>
+    <t>exchang</t>
   </si>
   <si>
     <t>expand</t>
   </si>
   <si>
-    <t>extreme</t>
-  </si>
-  <si>
-    <t>facilitate</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>fired</t>
-  </si>
-  <si>
-    <t>food</t>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>expertis</t>
+  </si>
+  <si>
+    <t>explor</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>facilit</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>financ</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>firmli</t>
+  </si>
+  <si>
+    <t>focu</t>
+  </si>
+  <si>
+    <t>forc</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>forg</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>forum</t>
   </si>
   <si>
     <t>forward</t>
   </si>
   <si>
-    <t>fossil</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>fuels</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>globally</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>gojowczyk</t>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>friendli</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>fulfil</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>gener</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>goal</t>
   </si>
   <si>
     <t>green</t>
   </si>
   <si>
-    <t>greenhouse</t>
-  </si>
-  <si>
-    <t>growing</t>
+    <t>greener</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>grow</t>
   </si>
   <si>
     <t>grown</t>
@@ -310,310 +535,685 @@
     <t>growth</t>
   </si>
   <si>
-    <t>hainan</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hasakah</t>
-  </si>
-  <si>
-    <t>heads</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hood</t>
-  </si>
-  <si>
-    <t>illustrate</t>
-  </si>
-  <si>
-    <t>infections</t>
-  </si>
-  <si>
-    <t>influence</t>
-  </si>
-  <si>
-    <t>investments</t>
-  </si>
-  <si>
-    <t>iran</t>
-  </si>
-  <si>
-    <t>iranian</t>
-  </si>
-  <si>
-    <t>irans</t>
-  </si>
-  <si>
-    <t>jobs</t>
-  </si>
-  <si>
-    <t>kenyas</t>
-  </si>
-  <si>
-    <t>lanka</t>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>harmoni</t>
+  </si>
+  <si>
+    <t>hegemoni</t>
+  </si>
+  <si>
+    <t>highlevel</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>highqual</t>
+  </si>
+  <si>
+    <t>histor</t>
+  </si>
+  <si>
+    <t>histori</t>
+  </si>
+  <si>
+    <t>honor</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>humanitarian</t>
+  </si>
+  <si>
+    <t>ideolog</t>
+  </si>
+  <si>
+    <t>ifandroid</t>
+  </si>
+  <si>
+    <t>ifiphoneipadipod</t>
+  </si>
+  <si>
+    <t>impetu</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>inclus</t>
+  </si>
+  <si>
+    <t>industri</t>
+  </si>
+  <si>
+    <t>infrastructur</t>
+  </si>
+  <si>
+    <t>initi</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t>innov</t>
+  </si>
+  <si>
+    <t>innovationdriven</t>
+  </si>
+  <si>
+    <t>integr</t>
+  </si>
+  <si>
+    <t>interfer</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>issu</t>
+  </si>
+  <si>
+    <t>jinp</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>jointli</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>justic</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>keynot</t>
+  </si>
+  <si>
+    <t>landscap</t>
   </si>
   <si>
     <t>largest</t>
   </si>
   <si>
-    <t>lasting</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>livelihoods</t>
-  </si>
-  <si>
-    <t>lockdown</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>mandate</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>military</t>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>legitim</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>longterm</t>
+  </si>
+  <si>
+    <t>lowcarbon</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>mankind</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>matchmicromessengeri</t>
+  </si>
+  <si>
+    <t>materi</t>
+  </si>
+  <si>
+    <t>mechan</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>micromesseng</t>
   </si>
   <si>
     <t>mission</t>
   </si>
   <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>netzero</t>
-  </si>
-  <si>
-    <t>opportunities</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>pakistan</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>multilater</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>natur</t>
+  </si>
+  <si>
+    <t>navig</t>
+  </si>
+  <si>
+    <t>necessarili</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>opena</t>
+  </si>
+  <si>
+    <t>openingup</t>
+  </si>
+  <si>
+    <t>openwww</t>
+  </si>
+  <si>
+    <t>opinionchinadaili</t>
+  </si>
+  <si>
+    <t>opportun</t>
+  </si>
+  <si>
+    <t>oppos</t>
+  </si>
+  <si>
+    <t>outcom</t>
+  </si>
+  <si>
+    <t>overcom</t>
+  </si>
+  <si>
+    <t>parti</t>
+  </si>
+  <si>
+    <t>particip</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>partnership</t>
   </si>
   <si>
     <t>path</t>
   </si>
   <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>peace</t>
-  </si>
-  <si>
-    <t>peaking</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>planet</t>
-  </si>
-  <si>
-    <t>players</t>
-  </si>
-  <si>
-    <t>provided</t>
-  </si>
-  <si>
-    <t>qureshi</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>rajapaksa</t>
-  </si>
-  <si>
-    <t>reach</t>
-  </si>
-  <si>
-    <t>reducing</t>
-  </si>
-  <si>
-    <t>refusing</t>
-  </si>
-  <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>religious</t>
-  </si>
-  <si>
-    <t>renewables</t>
-  </si>
-  <si>
-    <t>renowned</t>
-  </si>
-  <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>requires</t>
-  </si>
-  <si>
-    <t>restrictions</t>
-  </si>
-  <si>
-    <t>rights</t>
+    <t>peac</t>
+  </si>
+  <si>
+    <t>peoplecent</t>
+  </si>
+  <si>
+    <t>peopletopeopl</t>
+  </si>
+  <si>
+    <t>perspect</t>
+  </si>
+  <si>
+    <t>philosophi</t>
+  </si>
+  <si>
+    <t>pkgnamecom</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>pledg</t>
+  </si>
+  <si>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>polit</t>
+  </si>
+  <si>
+    <t>postpandem</t>
+  </si>
+  <si>
+    <t>poverti</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>practic</t>
+  </si>
+  <si>
+    <t>presid</t>
+  </si>
+  <si>
+    <t>principl</t>
+  </si>
+  <si>
+    <t>prioriti</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>promot</t>
+  </si>
+  <si>
+    <t>propos</t>
+  </si>
+  <si>
+    <t>prosper</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>provid</t>
+  </si>
+  <si>
+    <t>purpos</t>
+  </si>
+  <si>
+    <t>pursu</t>
+  </si>
+  <si>
+    <t>pursuit</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>qualiti</t>
+  </si>
+  <si>
+    <t>readi</t>
+  </si>
+  <si>
+    <t>realiti</t>
+  </si>
+  <si>
+    <t>realiz</t>
+  </si>
+  <si>
+    <t>recoveri</t>
+  </si>
+  <si>
+    <t>reduct</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>regard</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>rejuven</t>
+  </si>
+  <si>
+    <t>relat</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>renew</t>
+  </si>
+  <si>
+    <t>repres</t>
+  </si>
+  <si>
+    <t>republ</t>
+  </si>
+  <si>
+    <t>resili</t>
+  </si>
+  <si>
+    <t>resolut</t>
+  </si>
+  <si>
+    <t>resolv</t>
+  </si>
+  <si>
+    <t>resourc</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>respons</t>
+  </si>
+  <si>
+    <t>restor</t>
+  </si>
+  <si>
+    <t>revolut</t>
   </si>
   <si>
     <t>road</t>
   </si>
   <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>runners</t>
-  </si>
-  <si>
-    <t>running</t>
-  </si>
-  <si>
-    <t>sabalenka</t>
-  </si>
-  <si>
-    <t>sdgs</t>
-  </si>
-  <si>
-    <t>sectors</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>september</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>somali</t>
-  </si>
-  <si>
-    <t>somalia</t>
-  </si>
-  <si>
-    <t>south</t>
+    <t>role</t>
+  </si>
+  <si>
+    <t>safeguard</t>
+  </si>
+  <si>
+    <t>scienc</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>secur</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>seiz</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shareweixin</t>
+  </si>
+  <si>
+    <t>signific</t>
+  </si>
+  <si>
+    <t>sincer</t>
+  </si>
+  <si>
+    <t>socialist</t>
+  </si>
+  <si>
+    <t>solidar</t>
+  </si>
+  <si>
+    <t>solut</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>southsouth</t>
+  </si>
+  <si>
+    <t>sovereignti</t>
+  </si>
+  <si>
+    <t>specif</t>
+  </si>
+  <si>
+    <t>speech</t>
   </si>
   <si>
     <t>spirit</t>
   </si>
   <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>sri</t>
-  </si>
-  <si>
-    <t>staged</t>
+    <t>stabil</t>
+  </si>
+  <si>
+    <t>stabl</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>steadi</t>
+  </si>
+  <si>
+    <t>stori</t>
+  </si>
+  <si>
+    <t>strateg</t>
+  </si>
+  <si>
+    <t>strategi</t>
+  </si>
+  <si>
+    <t>strength</t>
   </si>
   <si>
     <t>strengthen</t>
   </si>
   <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>strive</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>structur</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>suppli</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>supports</t>
-  </si>
-  <si>
-    <t>syria</t>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>synergi</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>tackl</t>
   </si>
   <si>
     <t>tank</t>
   </si>
   <si>
-    <t>targets</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>teams</t>
-  </si>
-  <si>
-    <t>tiafoe</t>
-  </si>
-  <si>
-    <t>transition</t>
-  </si>
-  <si>
-    <t>transitions</t>
-  </si>
-  <si>
-    <t>trillion</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>undp</t>
-  </si>
-  <si>
-    <t>universities</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>viewed</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>wang</t>
-  </si>
-  <si>
-    <t>welcomes</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>wrote</t>
-  </si>
-  <si>
-    <t>zhangjiakou</t>
+    <t>technolog</t>
+  </si>
+  <si>
+    <t>terror</t>
+  </si>
+  <si>
+    <t>testua</t>
+  </si>
+  <si>
+    <t>theotino</t>
+  </si>
+  <si>
+    <t>therefor</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>togeth</t>
+  </si>
+  <si>
+    <t>tolowercas</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>unilater</t>
+  </si>
+  <si>
+    <t>uniti</t>
+  </si>
+  <si>
+    <t>unseen</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>userag</t>
+  </si>
+  <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>variou</t>
+  </si>
+  <si>
+    <t>victori</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>vigor</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>welcom</t>
+  </si>
+  <si>
+    <t>wellb</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>winwin</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>yi</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>0.3333444471753835</v>
+        <v>8.098192695525309</v>
       </c>
       <c r="C2">
-        <v>0.3333483016026056</v>
+        <v>0.3870838649316902</v>
       </c>
       <c r="D2">
-        <v>11.32876110943844</v>
+        <v>0.408002266444055</v>
       </c>
       <c r="E2">
-        <v>0.3333444471753835</v>
+        <v>3.773945620167582</v>
       </c>
       <c r="F2">
-        <v>0.3333476388228765</v>
+        <v>11.56607756863062</v>
       </c>
       <c r="G2">
-        <v>0.3333696899637609</v>
+        <v>9.805215321019553</v>
       </c>
       <c r="H2">
-        <v>0.3333455099548612</v>
+        <v>0.4091951241493961</v>
       </c>
       <c r="I2">
-        <v>0.3333451619193814</v>
+        <v>0.3916510868703512</v>
       </c>
       <c r="J2">
-        <v>0.3333479732758305</v>
+        <v>0.3409385175236676</v>
       </c>
       <c r="K2">
-        <v>0.3333466348702965</v>
+        <v>4.167935591847231</v>
       </c>
       <c r="L2">
-        <v>0.3333466348702965</v>
+        <v>4.988166092361851</v>
       </c>
       <c r="M2">
-        <v>2.332088716164578</v>
+        <v>0.3919441983081101</v>
       </c>
       <c r="N2">
-        <v>2.330568800200707</v>
+        <v>0.3878670350693</v>
       </c>
       <c r="O2">
-        <v>0.3337542181538931</v>
+        <v>4.631104277238325</v>
       </c>
       <c r="P2">
-        <v>0.3333461718513462</v>
+        <v>0.3335240459552087</v>
       </c>
       <c r="Q2">
-        <v>0.3333466348702965</v>
+        <v>0.3681711542527993</v>
       </c>
       <c r="R2">
-        <v>0.3333445627831006</v>
+        <v>0.4045364226177742</v>
       </c>
       <c r="S2">
-        <v>0.3333880381245162</v>
+        <v>0.3508004588740158</v>
       </c>
       <c r="T2">
-        <v>5.596013126542484</v>
+        <v>4.61429774722161</v>
       </c>
       <c r="U2">
-        <v>6.40109735244562</v>
+        <v>257.263117923872</v>
       </c>
       <c r="V2">
-        <v>0.3333445904109228</v>
+        <v>0.359681562972085</v>
       </c>
       <c r="W2">
-        <v>5.317290157915342</v>
+        <v>0.3553419723274834</v>
       </c>
       <c r="X2">
-        <v>20.82443690833535</v>
+        <v>5.334835343647437</v>
       </c>
       <c r="Y2">
-        <v>0.3333458983887265</v>
+        <v>2.780443534987378</v>
       </c>
       <c r="Z2">
-        <v>0.3333484158081422</v>
+        <v>6.211199959893245</v>
       </c>
       <c r="AA2">
-        <v>0.3333448917002075</v>
+        <v>0.3387165009447225</v>
       </c>
       <c r="AB2">
-        <v>2.33322184966027</v>
+        <v>0.3706685261981462</v>
       </c>
       <c r="AC2">
-        <v>0.3333448917002075</v>
+        <v>0.4010237315321852</v>
       </c>
       <c r="AD2">
-        <v>0.3333460084903349</v>
+        <v>2.605679204299683</v>
       </c>
       <c r="AE2">
-        <v>0.3354186705174725</v>
+        <v>0.3569256297253263</v>
       </c>
       <c r="AF2">
-        <v>1.33242305903579</v>
+        <v>0.4131384766454469</v>
       </c>
       <c r="AG2">
-        <v>0.333392013283858</v>
+        <v>2.162625483668013</v>
       </c>
       <c r="AH2">
-        <v>0.3333503332826401</v>
+        <v>0.3703731780754487</v>
       </c>
       <c r="AI2">
-        <v>2.332768397257907</v>
+        <v>0.3387646317125835</v>
       </c>
       <c r="AJ2">
-        <v>0.3333451619193814</v>
+        <v>0.395584285549661</v>
       </c>
       <c r="AK2">
-        <v>2.33322184966027</v>
+        <v>0.3622372112730427</v>
       </c>
       <c r="AL2">
-        <v>0.3333451619193814</v>
+        <v>5.323486311957482</v>
       </c>
       <c r="AM2">
-        <v>0.3333458983887265</v>
+        <v>0.3599293551446164</v>
       </c>
       <c r="AN2">
-        <v>0.3333479732758305</v>
+        <v>0.3515665277104592</v>
       </c>
       <c r="AO2">
-        <v>0.3334025879059446</v>
+        <v>0.4182468699216623</v>
       </c>
       <c r="AP2">
-        <v>5.555081407294899</v>
+        <v>0.3408526722422888</v>
       </c>
       <c r="AQ2">
-        <v>0.3333531656679627</v>
+        <v>0.3682651069033497</v>
       </c>
       <c r="AR2">
-        <v>0.3333451619193814</v>
+        <v>0.3406323392380132</v>
       </c>
       <c r="AS2">
-        <v>10.33319314193129</v>
+        <v>2.162800981991779</v>
       </c>
       <c r="AT2">
-        <v>28.3250930001891</v>
+        <v>2.518663006401614</v>
       </c>
       <c r="AU2">
-        <v>0.3333451619193814</v>
+        <v>0.3458307817508849</v>
       </c>
       <c r="AV2">
-        <v>0.3333606526112547</v>
+        <v>0.3548042097541398</v>
       </c>
       <c r="AW2">
-        <v>6.269990409936429</v>
+        <v>226.3238125272124</v>
       </c>
       <c r="AX2">
-        <v>79.23124416727045</v>
+        <v>0.3541764127986112</v>
       </c>
       <c r="AY2">
-        <v>1.324790539640004</v>
+        <v>0.376674220060472</v>
       </c>
       <c r="AZ2">
-        <v>0.3333451619193814</v>
+        <v>0.4243560324838075</v>
       </c>
       <c r="BA2">
-        <v>0.3333473563017385</v>
+        <v>4.758757361553584</v>
       </c>
       <c r="BB2">
-        <v>2.321663586923973</v>
+        <v>11.02352116327272</v>
       </c>
       <c r="BC2">
-        <v>17.33286239325829</v>
+        <v>0.3866024996414868</v>
       </c>
       <c r="BD2">
-        <v>18.33319438348631</v>
+        <v>46.54814563559184</v>
       </c>
       <c r="BE2">
-        <v>0.3333466348702965</v>
+        <v>0.336480375679187</v>
       </c>
       <c r="BF2">
-        <v>0.3384676170828695</v>
+        <v>0.3390950374523879</v>
       </c>
       <c r="BG2">
-        <v>0.3333757380962524</v>
+        <v>274.2510792570737</v>
       </c>
       <c r="BH2">
-        <v>0.3333451619193814</v>
+        <v>224.3245771032121</v>
       </c>
       <c r="BI2">
-        <v>0.3333583078424391</v>
+        <v>226.3238125272124</v>
       </c>
       <c r="BJ2">
-        <v>0.3333451619193814</v>
+        <v>23.32319433378782</v>
       </c>
       <c r="BK2">
-        <v>0.4742395147469076</v>
+        <v>2.078159542979522</v>
       </c>
       <c r="BL2">
-        <v>0.3356409378724454</v>
+        <v>0.3535694386771718</v>
       </c>
       <c r="BM2">
-        <v>1.32763613650638</v>
+        <v>2.442521137821091</v>
       </c>
       <c r="BN2">
-        <v>0.3333466348702965</v>
+        <v>6.263496686036574</v>
       </c>
       <c r="BO2">
-        <v>0.3333476388228765</v>
+        <v>224.3245771032121</v>
       </c>
       <c r="BP2">
-        <v>0.3333479732758305</v>
+        <v>0.3454450298141601</v>
       </c>
       <c r="BQ2">
-        <v>0.3333445062193899</v>
+        <v>0.4264592764684486</v>
       </c>
       <c r="BR2">
-        <v>10.33322822008932</v>
+        <v>0.3343177724056057</v>
       </c>
       <c r="BS2">
-        <v>3.333224397726419</v>
+        <v>0.3651960710783008</v>
       </c>
       <c r="BT2">
-        <v>0.3333613441576032</v>
+        <v>0.3784751809377603</v>
       </c>
       <c r="BU2">
-        <v>0.3333466348702965</v>
+        <v>10.33668438972368</v>
       </c>
       <c r="BV2">
-        <v>0.3333449456090672</v>
+        <v>5.381347714782793</v>
       </c>
       <c r="BW2">
-        <v>0.3333463309970315</v>
+        <v>226.3238125272124</v>
       </c>
       <c r="BX2">
-        <v>0.3333474636618687</v>
+        <v>0.4341797813364076</v>
       </c>
       <c r="BY2">
-        <v>0.3340261333762535</v>
+        <v>0.4819328009043878</v>
       </c>
       <c r="BZ2">
-        <v>0.3436393770686921</v>
+        <v>0.3425572258598877</v>
       </c>
       <c r="CA2">
-        <v>0.3333458512264234</v>
+        <v>0.6175769908504936</v>
       </c>
       <c r="CB2">
-        <v>0.3333887757061733</v>
+        <v>0.3655258863567032</v>
       </c>
       <c r="CC2">
-        <v>0.3333606526112547</v>
+        <v>1.911652537750894</v>
       </c>
       <c r="CD2">
-        <v>0.3340546362000597</v>
+        <v>0.3887523854666045</v>
       </c>
       <c r="CE2">
-        <v>1.331181820279654</v>
+        <v>0.3904256587576656</v>
       </c>
       <c r="CF2">
-        <v>1.344629873382666</v>
+        <v>0.3825729018312182</v>
       </c>
       <c r="CG2">
-        <v>3.333224397726419</v>
+        <v>0.4704929614074645</v>
       </c>
       <c r="CH2">
-        <v>5.333093984085107</v>
+        <v>0.3861449570048409</v>
       </c>
       <c r="CI2">
-        <v>2.329603758002824</v>
+        <v>0.3428709068768604</v>
       </c>
       <c r="CJ2">
-        <v>0.3333446049107774</v>
+        <v>14.79192339791832</v>
       </c>
       <c r="CK2">
-        <v>1.326526483236096</v>
+        <v>0.3825848362960373</v>
       </c>
       <c r="CL2">
-        <v>0.3333447501797965</v>
+        <v>0.4267824219348443</v>
       </c>
       <c r="CM2">
-        <v>0.3333466348702965</v>
+        <v>0.391975315524803</v>
       </c>
       <c r="CN2">
-        <v>2.321073944979523</v>
+        <v>44.84584995181451</v>
       </c>
       <c r="CO2">
-        <v>0.3356409378724454</v>
+        <v>0.3965426694536928</v>
       </c>
       <c r="CP2">
-        <v>0.3333891864524425</v>
+        <v>0.3875185386692891</v>
       </c>
       <c r="CQ2">
-        <v>1.295558312895931</v>
+        <v>0.4167320094568471</v>
       </c>
       <c r="CR2">
-        <v>0.3333451619193814</v>
+        <v>0.3876530189484008</v>
       </c>
       <c r="CS2">
-        <v>0.3333458983887265</v>
+        <v>0.3403467838207216</v>
       </c>
       <c r="CT2">
-        <v>0.3333466348702965</v>
+        <v>0.4212387230547893</v>
       </c>
       <c r="CU2">
-        <v>0.3333453714608154</v>
+        <v>0.3750493330471238</v>
       </c>
       <c r="CV2">
-        <v>0.3333466348702965</v>
+        <v>0.3555268379015642</v>
       </c>
       <c r="CW2">
-        <v>0.333389879138747</v>
+        <v>4.485072717877101</v>
       </c>
       <c r="CX2">
-        <v>3.333098179230098</v>
+        <v>0.3461646753309066</v>
       </c>
       <c r="CY2">
-        <v>0.3333447299501887</v>
+        <v>2.19620439774287</v>
       </c>
       <c r="CZ2">
-        <v>42.20424767048489</v>
+        <v>24.94340416795904</v>
       </c>
       <c r="DA2">
-        <v>0.3333459611160493</v>
+        <v>0.3484782847778396</v>
       </c>
       <c r="DB2">
-        <v>0.3333466348702965</v>
+        <v>0.3577793633149073</v>
       </c>
       <c r="DC2">
-        <v>26.33312109801438</v>
+        <v>0.3836121685348389</v>
       </c>
       <c r="DD2">
-        <v>0.3333466348702965</v>
+        <v>6.121356114799493</v>
       </c>
       <c r="DE2">
-        <v>0.3333447501797965</v>
+        <v>1.05191632198068</v>
       </c>
       <c r="DF2">
-        <v>0.333344314155691</v>
+        <v>0.5069459385326119</v>
       </c>
       <c r="DG2">
-        <v>0.3333444056373843</v>
+        <v>1.559100240525081</v>
       </c>
       <c r="DH2">
-        <v>0.3333445048840368</v>
+        <v>0.3451162874418257</v>
       </c>
       <c r="DI2">
-        <v>0.3333597703527214</v>
+        <v>0.3411461329469554</v>
       </c>
       <c r="DJ2">
-        <v>0.3333479732758305</v>
+        <v>14.9907582174825</v>
       </c>
       <c r="DK2">
-        <v>0.3353925746669429</v>
+        <v>13.13466201773578</v>
       </c>
       <c r="DL2">
-        <v>3.33174307847702</v>
+        <v>0.3572104614686419</v>
       </c>
       <c r="DM2">
-        <v>0.3333613441576032</v>
+        <v>7.641476630705749</v>
       </c>
       <c r="DN2">
-        <v>0.3333463309970315</v>
+        <v>0.4152508712458187</v>
       </c>
       <c r="DO2">
-        <v>0.3333448917002075</v>
+        <v>252.2764181342956</v>
       </c>
       <c r="DP2">
-        <v>10.33318431232272</v>
+        <v>0.3549278911257182</v>
       </c>
       <c r="DQ2">
-        <v>0.333389879138747</v>
+        <v>3.382604646892285</v>
       </c>
       <c r="DR2">
-        <v>0.3333613441576032</v>
+        <v>0.3827653634709862</v>
       </c>
       <c r="DS2">
-        <v>0.333389879138747</v>
+        <v>0.3735691499672164</v>
       </c>
       <c r="DT2">
-        <v>3.333224397726419</v>
+        <v>6.207900782943519</v>
       </c>
       <c r="DU2">
-        <v>0.3333476388228765</v>
+        <v>0.3774892365037656</v>
       </c>
       <c r="DV2">
-        <v>0.3333577124653797</v>
+        <v>0.3558248045865175</v>
       </c>
       <c r="DW2">
-        <v>0.3333558553465624</v>
+        <v>0.3510244747312735</v>
       </c>
       <c r="DX2">
-        <v>0.3333451619193814</v>
+        <v>0.3671275871136288</v>
       </c>
       <c r="DY2">
-        <v>0.3333840932511228</v>
+        <v>0.4501134872150466</v>
       </c>
       <c r="DZ2">
-        <v>1.329489357738665</v>
+        <v>0.4519265265989783</v>
       </c>
       <c r="EA2">
-        <v>0.3333887757061733</v>
+        <v>2.4605752679997</v>
       </c>
       <c r="EB2">
-        <v>0.3333679482007701</v>
+        <v>0.3488948048280691</v>
       </c>
       <c r="EC2">
-        <v>0.3333578096593532</v>
+        <v>0.3904773179834644</v>
       </c>
       <c r="ED2">
-        <v>10.33309955967874</v>
+        <v>0.3722744566391363</v>
       </c>
       <c r="EE2">
-        <v>0.333349742985252</v>
+        <v>3.794207404472746</v>
       </c>
       <c r="EF2">
-        <v>0.3333448917002075</v>
+        <v>0.3899641195669227</v>
       </c>
       <c r="EG2">
-        <v>42.00140960833988</v>
+        <v>13.35386357349554</v>
       </c>
       <c r="EH2">
-        <v>31.3406304351593</v>
+        <v>0.3539453776455127</v>
       </c>
       <c r="EI2">
-        <v>0.3333458983887265</v>
+        <v>4.317018530165372</v>
       </c>
       <c r="EJ2">
-        <v>1.520329294428495</v>
+        <v>0.405644161703592</v>
       </c>
       <c r="EK2">
-        <v>0.3333629026584523</v>
+        <v>0.3640732040230651</v>
       </c>
       <c r="EL2">
-        <v>0.3333448917002075</v>
+        <v>2.482360056922064</v>
       </c>
       <c r="EM2">
-        <v>0.3333887618975634</v>
+        <v>0.381671385634746</v>
       </c>
       <c r="EN2">
-        <v>1.600564973599366</v>
+        <v>0.3622901145651653</v>
       </c>
       <c r="EO2">
-        <v>0.3333686457500036</v>
+        <v>0.3623770709548318</v>
       </c>
       <c r="EP2">
-        <v>1.323218987465621</v>
+        <v>0.4004347789844155</v>
       </c>
       <c r="EQ2">
-        <v>0.3354186705174725</v>
+        <v>0.3788176671454053</v>
       </c>
       <c r="ER2">
-        <v>1.330693830996274</v>
+        <v>0.3939362433624088</v>
       </c>
       <c r="ES2">
-        <v>0.3333451619193814</v>
+        <v>1.588181569064655</v>
       </c>
       <c r="ET2">
-        <v>2.33322184966027</v>
+        <v>0.3557127748254258</v>
       </c>
       <c r="EU2">
-        <v>0.3333458567808328</v>
+        <v>3.768922654364558</v>
       </c>
       <c r="EV2">
-        <v>3.333224397726419</v>
+        <v>13.67533105946208</v>
       </c>
       <c r="EW2">
-        <v>0.3333451619193814</v>
+        <v>0.3652394779448077</v>
       </c>
       <c r="EX2">
-        <v>0.3333466348702965</v>
+        <v>7.623326045335846</v>
       </c>
       <c r="EY2">
-        <v>18.33312806608507</v>
+        <v>4.005996566701327</v>
       </c>
       <c r="EZ2">
-        <v>2.325288922744631</v>
+        <v>0.4103462209607406</v>
       </c>
       <c r="FA2">
-        <v>1.326907393199426</v>
+        <v>0.3405998867329443</v>
       </c>
       <c r="FB2">
-        <v>11.32093906354503</v>
+        <v>0.3490118569055433</v>
       </c>
       <c r="FC2">
-        <v>0.3333447299501887</v>
+        <v>0.3402604240702884</v>
       </c>
       <c r="FD2">
-        <v>1.33044486940161</v>
+        <v>0.3419696271170552</v>
       </c>
       <c r="FE2">
-        <v>1.327180952993148</v>
+        <v>0.3434135175412046</v>
       </c>
       <c r="FF2">
-        <v>0.3333458414605301</v>
+        <v>0.3979558492931105</v>
       </c>
       <c r="FG2">
-        <v>0.3333459611160493</v>
+        <v>251.7567678945674</v>
       </c>
       <c r="FH2">
-        <v>0.3333891864524425</v>
+        <v>0.3983030817042638</v>
       </c>
       <c r="FI2">
-        <v>0.3333761183228082</v>
+        <v>0.4456979528987195</v>
       </c>
       <c r="FJ2">
-        <v>1.50005194565183</v>
+        <v>20.07519471744141</v>
       </c>
       <c r="FK2">
-        <v>1.317416973082876</v>
+        <v>13.13578603749774</v>
       </c>
       <c r="FL2">
-        <v>0.3333884754359613</v>
+        <v>2.35409877263405</v>
       </c>
       <c r="FM2">
-        <v>2.332834723829996</v>
+        <v>0.3885178270138723</v>
       </c>
       <c r="FN2">
-        <v>3.32567284107947</v>
+        <v>0.3425850256119577</v>
       </c>
       <c r="FO2">
-        <v>0.3333476388228765</v>
+        <v>0.3854334814710456</v>
       </c>
       <c r="FP2">
-        <v>0.3333470452815802</v>
+        <v>7.413281346845683</v>
       </c>
       <c r="FQ2">
-        <v>14.33268211510291</v>
+        <v>1.347594492288367</v>
       </c>
       <c r="FR2">
-        <v>0.3333466348702965</v>
+        <v>7.282116491709693</v>
       </c>
       <c r="FS2">
-        <v>1.324943822847181</v>
+        <v>0.4302454371107226</v>
       </c>
       <c r="FT2">
-        <v>0.3353925746669429</v>
+        <v>0.348518215842045</v>
       </c>
       <c r="FU2">
-        <v>0.3333466348702965</v>
+        <v>0.3437128463810946</v>
       </c>
       <c r="FV2">
-        <v>0.3333503332826401</v>
+        <v>0.3971010651682637</v>
       </c>
       <c r="FW2">
-        <v>3.410038423121597</v>
+        <v>0.3881909205915809</v>
       </c>
       <c r="FX2">
-        <v>1.321490072277756</v>
+        <v>0.3590326938122537</v>
       </c>
       <c r="FY2">
-        <v>7.333104879250602</v>
+        <v>0.3537001129039288</v>
       </c>
       <c r="FZ2">
-        <v>0.3333451619193814</v>
+        <v>6.457129748355029</v>
       </c>
       <c r="GA2">
-        <v>0.3333458983887265</v>
+        <v>4.419907759024427</v>
       </c>
       <c r="GB2">
-        <v>0.398068764814001</v>
+        <v>0.4083360828173409</v>
       </c>
       <c r="GC2">
-        <v>0.3333463309970315</v>
+        <v>3.489032708077069</v>
       </c>
       <c r="GD2">
-        <v>0.3333887618975634</v>
+        <v>224.3245771032121</v>
       </c>
       <c r="GE2">
-        <v>0.3333687232130175</v>
+        <v>6.212235681192137</v>
       </c>
       <c r="GF2">
-        <v>0.3333451619193814</v>
+        <v>1.500661004883197</v>
       </c>
       <c r="GG2">
-        <v>0.3333448917002075</v>
+        <v>0.3460796130889177</v>
       </c>
       <c r="GH2">
-        <v>18.33314695090559</v>
+        <v>224.3245771032121</v>
       </c>
       <c r="GI2">
-        <v>1.33242305903579</v>
+        <v>226.3238125272124</v>
       </c>
       <c r="GJ2">
-        <v>0.3333451619193814</v>
+        <v>0.3510303563836068</v>
       </c>
       <c r="GK2">
-        <v>1.332454387708528</v>
+        <v>0.448745446160468</v>
       </c>
       <c r="GL2">
-        <v>18.33320905251354</v>
+        <v>14.82084430886353</v>
       </c>
       <c r="GM2">
-        <v>0.3333458983887265</v>
+        <v>0.3867282827241754</v>
       </c>
       <c r="GN2">
-        <v>18.32162949661044</v>
+        <v>0.3557305615215432</v>
       </c>
       <c r="GO2">
-        <v>0.3333499968987978</v>
+        <v>0.423943970274636</v>
       </c>
       <c r="GP2">
-        <v>1.326807359284368</v>
+        <v>0.3770602750316692</v>
       </c>
       <c r="GQ2">
-        <v>0.333389879138747</v>
+        <v>12.32666492468044</v>
       </c>
       <c r="GR2">
-        <v>2.33322184966027</v>
+        <v>3.269032058138545</v>
       </c>
       <c r="GS2">
-        <v>0.3333459611160493</v>
+        <v>5.322106538646738</v>
+      </c>
+      <c r="GT2">
+        <v>0.3644488840336934</v>
+      </c>
+      <c r="GU2">
+        <v>3.196440831401372</v>
+      </c>
+      <c r="GV2">
+        <v>0.3432563766371031</v>
+      </c>
+      <c r="GW2">
+        <v>29.14941561005</v>
+      </c>
+      <c r="GX2">
+        <v>0.3833213213607631</v>
+      </c>
+      <c r="GY2">
+        <v>6.288512502603091</v>
+      </c>
+      <c r="GZ2">
+        <v>9.712603148191761</v>
+      </c>
+      <c r="HA2">
+        <v>0.8947962911023231</v>
+      </c>
+      <c r="HB2">
+        <v>0.4025332514451985</v>
+      </c>
+      <c r="HC2">
+        <v>0.3892250429936238</v>
+      </c>
+      <c r="HD2">
+        <v>0.3406991722739783</v>
+      </c>
+      <c r="HE2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="HF2">
+        <v>0.4430191413578411</v>
+      </c>
+      <c r="HG2">
+        <v>7.992969587634407</v>
+      </c>
+      <c r="HH2">
+        <v>2.363927199140135</v>
+      </c>
+      <c r="HI2">
+        <v>0.3712515715259619</v>
+      </c>
+      <c r="HJ2">
+        <v>0.3822448137278709</v>
+      </c>
+      <c r="HK2">
+        <v>17.02472795704375</v>
+      </c>
+      <c r="HL2">
+        <v>0.3498797371608687</v>
+      </c>
+      <c r="HM2">
+        <v>1.231103110214948</v>
+      </c>
+      <c r="HN2">
+        <v>13.67773747629095</v>
+      </c>
+      <c r="HO2">
+        <v>0.3799082555779599</v>
+      </c>
+      <c r="HP2">
+        <v>0.3477026116535059</v>
+      </c>
+      <c r="HQ2">
+        <v>0.4021459543473856</v>
+      </c>
+      <c r="HR2">
+        <v>6.91568163021162</v>
+      </c>
+      <c r="HS2">
+        <v>0.3462329970178673</v>
+      </c>
+      <c r="HT2">
+        <v>4.766370300188351</v>
+      </c>
+      <c r="HU2">
+        <v>0.4020121260726752</v>
+      </c>
+      <c r="HV2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="HW2">
+        <v>0.3843632220811537</v>
+      </c>
+      <c r="HX2">
+        <v>0.3696461795259369</v>
+      </c>
+      <c r="HY2">
+        <v>9.034961227198876</v>
+      </c>
+      <c r="HZ2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="IA2">
+        <v>1.704314132451905</v>
+      </c>
+      <c r="IB2">
+        <v>0.3862741693809481</v>
+      </c>
+      <c r="IC2">
+        <v>0.3600551883174077</v>
+      </c>
+      <c r="ID2">
+        <v>0.3555886381384513</v>
+      </c>
+      <c r="IE2">
+        <v>0.3530365955066526</v>
+      </c>
+      <c r="IF2">
+        <v>0.3587450686129242</v>
+      </c>
+      <c r="IG2">
+        <v>2.410252671575017</v>
+      </c>
+      <c r="IH2">
+        <v>241.2575322455647</v>
+      </c>
+      <c r="II2">
+        <v>0.3664186745217859</v>
+      </c>
+      <c r="IJ2">
+        <v>1.636486278868675</v>
+      </c>
+      <c r="IK2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="IL2">
+        <v>2.499907859596176</v>
+      </c>
+      <c r="IM2">
+        <v>224.3245771032121</v>
+      </c>
+      <c r="IN2">
+        <v>0.3343177724056057</v>
+      </c>
+      <c r="IO2">
+        <v>4.165897043139052</v>
+      </c>
+      <c r="IP2">
+        <v>0.3510866226789725</v>
+      </c>
+      <c r="IQ2">
+        <v>0.5405726925880958</v>
+      </c>
+      <c r="IR2">
+        <v>0.3600288884093422</v>
+      </c>
+      <c r="IS2">
+        <v>7.608537563450526</v>
+      </c>
+      <c r="IT2">
+        <v>12.89862688583</v>
+      </c>
+      <c r="IU2">
+        <v>0.4216219449277647</v>
+      </c>
+      <c r="IV2">
+        <v>3.813615410376763</v>
+      </c>
+      <c r="IW2">
+        <v>0.3896940067323282</v>
+      </c>
+      <c r="IX2">
+        <v>0.3498301297160607</v>
+      </c>
+      <c r="IY2">
+        <v>0.3416118160248994</v>
+      </c>
+      <c r="IZ2">
+        <v>0.3523227216376232</v>
+      </c>
+      <c r="JA2">
+        <v>0.3547224442100069</v>
+      </c>
+      <c r="JB2">
+        <v>0.363637191733816</v>
+      </c>
+      <c r="JC2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="JD2">
+        <v>2.429621572092859</v>
+      </c>
+      <c r="JE2">
+        <v>0.4125520702672902</v>
+      </c>
+      <c r="JF2">
+        <v>0.4373612350225963</v>
+      </c>
+      <c r="JG2">
+        <v>0.3824666437287951</v>
+      </c>
+      <c r="JH2">
+        <v>6.978948623881939</v>
+      </c>
+      <c r="JI2">
+        <v>0.3562317390391653</v>
+      </c>
+      <c r="JJ2">
+        <v>5.123111696193416</v>
+      </c>
+      <c r="JK2">
+        <v>2.121385613686125</v>
+      </c>
+      <c r="JL2">
+        <v>0.3974002048693676</v>
+      </c>
+      <c r="JM2">
+        <v>25.74491805895581</v>
+      </c>
+      <c r="JN2">
+        <v>0.3986902928920547</v>
+      </c>
+      <c r="JO2">
+        <v>0.3472520185744214</v>
+      </c>
+      <c r="JP2">
+        <v>0.3723806542383525</v>
+      </c>
+      <c r="JQ2">
+        <v>0.3778869139086358</v>
+      </c>
+      <c r="JR2">
+        <v>0.3499504089746287</v>
+      </c>
+      <c r="JS2">
+        <v>0.3949459412671881</v>
+      </c>
+      <c r="JT2">
+        <v>5.371217634867464</v>
+      </c>
+      <c r="JU2">
+        <v>0.383311365813478</v>
+      </c>
+      <c r="JV2">
+        <v>1.566549709301645</v>
+      </c>
+      <c r="JW2">
+        <v>0.3601569946055154</v>
+      </c>
+      <c r="JX2">
+        <v>0.3496517793256472</v>
+      </c>
+      <c r="JY2">
+        <v>11.07070433665621</v>
+      </c>
+      <c r="JZ2">
+        <v>0.431634282914484</v>
+      </c>
+      <c r="KA2">
+        <v>0.3719721183430275</v>
+      </c>
+      <c r="KB2">
+        <v>0.3435944529570211</v>
+      </c>
+      <c r="KC2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="KD2">
+        <v>0.3685487102206244</v>
+      </c>
+      <c r="KE2">
+        <v>3.532995066622796</v>
+      </c>
+      <c r="KF2">
+        <v>0.3755712938741283</v>
+      </c>
+      <c r="KG2">
+        <v>1.401676303311276</v>
+      </c>
+      <c r="KH2">
+        <v>9.620535927588101</v>
+      </c>
+      <c r="KI2">
+        <v>0.3515990634461513</v>
+      </c>
+      <c r="KJ2">
+        <v>0.398957117978477</v>
+      </c>
+      <c r="KK2">
+        <v>2.082072671005356</v>
+      </c>
+      <c r="KL2">
+        <v>0.3770590853674921</v>
+      </c>
+      <c r="KM2">
+        <v>15.46488112294888</v>
+      </c>
+      <c r="KN2">
+        <v>0.3571120732213566</v>
+      </c>
+      <c r="KO2">
+        <v>6.799840240893037</v>
+      </c>
+      <c r="KP2">
+        <v>0.3378293101780194</v>
+      </c>
+      <c r="KQ2">
+        <v>5.033290864001133</v>
+      </c>
+      <c r="KR2">
+        <v>0.4054776251680403</v>
+      </c>
+      <c r="KS2">
+        <v>7.341929285495023</v>
+      </c>
+      <c r="KT2">
+        <v>0.3694206649506122</v>
+      </c>
+      <c r="KU2">
+        <v>2.5557662576003</v>
+      </c>
+      <c r="KV2">
+        <v>0.3780975703729994</v>
+      </c>
+      <c r="KW2">
+        <v>0.3682418858233467</v>
+      </c>
+      <c r="KX2">
+        <v>0.4460947446479019</v>
+      </c>
+      <c r="KY2">
+        <v>0.4126275995503785</v>
+      </c>
+      <c r="KZ2">
+        <v>2.97759514700265</v>
+      </c>
+      <c r="LA2">
+        <v>15.59519461675353</v>
+      </c>
+      <c r="LB2">
+        <v>2.398046928257462</v>
+      </c>
+      <c r="LC2">
+        <v>0.3766938588722122</v>
+      </c>
+      <c r="LD2">
+        <v>7.797817845304357</v>
+      </c>
+      <c r="LE2">
+        <v>0.3927562173980521</v>
+      </c>
+      <c r="LF2">
+        <v>0.352495007042779</v>
+      </c>
+      <c r="LG2">
+        <v>0.391926435764237</v>
+      </c>
+      <c r="LH2">
+        <v>0.3566200431251611</v>
+      </c>
+      <c r="LI2">
+        <v>3.802968709043429</v>
+      </c>
+      <c r="LJ2">
+        <v>3.141313526230325</v>
+      </c>
+      <c r="LK2">
+        <v>0.3464546367037846</v>
+      </c>
+      <c r="LL2">
+        <v>0.3389294151573617</v>
+      </c>
+      <c r="LM2">
+        <v>7.714620979641385</v>
+      </c>
+      <c r="LN2">
+        <v>0.3956852008682455</v>
+      </c>
+      <c r="LO2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="LP2">
+        <v>4.834153059296691</v>
+      </c>
+      <c r="LQ2">
+        <v>0.3618813553360768</v>
+      </c>
+      <c r="LR2">
+        <v>0.3539404126045403</v>
+      </c>
+      <c r="LS2">
+        <v>0.3749679930164057</v>
+      </c>
+      <c r="LT2">
+        <v>0.4764316789726228</v>
+      </c>
+      <c r="LU2">
+        <v>0.3465701860807541</v>
+      </c>
+      <c r="LV2">
+        <v>0.3364072617555339</v>
+      </c>
+      <c r="LW2">
+        <v>0.3436595781133929</v>
+      </c>
+      <c r="LX2">
+        <v>0.3495175151250811</v>
+      </c>
+      <c r="LY2">
+        <v>3.023729667514446</v>
+      </c>
+      <c r="LZ2">
+        <v>0.3722106643080561</v>
+      </c>
+      <c r="MA2">
+        <v>0.3786485861979035</v>
+      </c>
+      <c r="MB2">
+        <v>0.3610244900220526</v>
+      </c>
+      <c r="MC2">
+        <v>0.3554592124813955</v>
+      </c>
+      <c r="MD2">
+        <v>0.3817605420504558</v>
+      </c>
+      <c r="ME2">
+        <v>1.798971932455205</v>
+      </c>
+      <c r="MF2">
+        <v>0.3923087902337277</v>
+      </c>
+      <c r="MG2">
+        <v>0.3969751173429307</v>
+      </c>
+      <c r="MH2">
+        <v>0.358265403733659</v>
+      </c>
+      <c r="MI2">
+        <v>2.165870448151025</v>
+      </c>
+      <c r="MJ2">
+        <v>0.3947459401177184</v>
+      </c>
+      <c r="MK2">
+        <v>2.471292744705337</v>
+      </c>
+      <c r="ML2">
+        <v>0.3503561562559731</v>
+      </c>
+      <c r="MM2">
+        <v>1.950243986377305</v>
+      </c>
+      <c r="MN2">
+        <v>2.104281164227543</v>
+      </c>
+      <c r="MO2">
+        <v>0.3426321900495412</v>
+      </c>
+      <c r="MP2">
+        <v>0.3822200459585746</v>
+      </c>
+      <c r="MQ2">
+        <v>8.004561437191756</v>
+      </c>
+      <c r="MR2">
+        <v>9.053021624914987</v>
+      </c>
+      <c r="MS2">
+        <v>0.4149658852660595</v>
+      </c>
+      <c r="MT2">
+        <v>0.3766855693865251</v>
+      </c>
+      <c r="MU2">
+        <v>0.3473889392084316</v>
+      </c>
+      <c r="MV2">
+        <v>8.416213549650923</v>
+      </c>
+      <c r="MW2">
+        <v>0.4233565130531287</v>
+      </c>
+      <c r="MX2">
+        <v>0.4475238570442344</v>
+      </c>
+      <c r="MY2">
+        <v>4.565923035887186</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3437211171190439</v>
+      </c>
+      <c r="NA2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="NB2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="NC2">
+        <v>0.4080169943980635</v>
+      </c>
+      <c r="ND2">
+        <v>0.3825358975460215</v>
+      </c>
+      <c r="NE2">
+        <v>0.3358075293674138</v>
+      </c>
+      <c r="NF2">
+        <v>0.417003795406004</v>
+      </c>
+      <c r="NG2">
+        <v>0.3639707282308005</v>
+      </c>
+      <c r="NH2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="NI2">
+        <v>1.02917958371954</v>
+      </c>
+      <c r="NJ2">
+        <v>0.3509659462023234</v>
+      </c>
+      <c r="NK2">
+        <v>3.807325828783306</v>
+      </c>
+      <c r="NL2">
+        <v>2.039218895148341</v>
+      </c>
+      <c r="NM2">
+        <v>0.4342404718024788</v>
+      </c>
+      <c r="NN2">
+        <v>0.3506465568463735</v>
+      </c>
+      <c r="NO2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="NP2">
+        <v>0.3514860531563732</v>
+      </c>
+      <c r="NQ2">
+        <v>0.3452459214457473</v>
+      </c>
+      <c r="NR2">
+        <v>0.3436023737005904</v>
+      </c>
+      <c r="NS2">
+        <v>0.3677155258940441</v>
+      </c>
+      <c r="NT2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="NU2">
+        <v>0.3457388670461272</v>
+      </c>
+      <c r="NV2">
+        <v>226.3238125272124</v>
+      </c>
+      <c r="NW2">
+        <v>5.933725759629114</v>
+      </c>
+      <c r="NX2">
+        <v>1.506679220724462</v>
+      </c>
+      <c r="NY2">
+        <v>14.32639931840446</v>
+      </c>
+      <c r="NZ2">
+        <v>0.3767359757506394</v>
+      </c>
+      <c r="OA2">
+        <v>0.4035516895072376</v>
+      </c>
+      <c r="OB2">
+        <v>0.3492508486926483</v>
+      </c>
+      <c r="OC2">
+        <v>5.580458825260187</v>
+      </c>
+      <c r="OD2">
+        <v>0.3734476875468629</v>
+      </c>
+      <c r="OE2">
+        <v>0.3690675617964777</v>
+      </c>
+      <c r="OF2">
+        <v>251.2838231225418</v>
+      </c>
+      <c r="OG2">
+        <v>0.3434970227855902</v>
+      </c>
+      <c r="OH2">
+        <v>0.381071700272746</v>
+      </c>
+      <c r="OI2">
+        <v>0.3407477079402586</v>
+      </c>
+      <c r="OJ2">
+        <v>9.158602179498223</v>
+      </c>
+      <c r="OK2">
+        <v>0.3992029161673221</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>0.3333449195908516</v>
+        <v>88.72614770855436</v>
       </c>
       <c r="C3">
-        <v>0.3333488439727253</v>
+        <v>27.69299868723941</v>
       </c>
       <c r="D3">
-        <v>0.3334096710552578</v>
+        <v>201.7789560846772</v>
       </c>
       <c r="E3">
-        <v>0.3333449195908516</v>
+        <v>124.7700468849391</v>
       </c>
       <c r="F3">
-        <v>0.333349141138966</v>
+        <v>124.7841007013293</v>
       </c>
       <c r="G3">
-        <v>2.332581318317684</v>
+        <v>157.4179973903512</v>
       </c>
       <c r="H3">
-        <v>5.333302830903903</v>
+        <v>78.39754903750305</v>
       </c>
       <c r="I3">
-        <v>2.333303455144264</v>
+        <v>157.7119711804558</v>
       </c>
       <c r="J3">
-        <v>0.3333495107208344</v>
+        <v>54.70414850283711</v>
       </c>
       <c r="K3">
-        <v>2.333300177963363</v>
+        <v>125.0795743008289</v>
       </c>
       <c r="L3">
-        <v>2.333300177963363</v>
+        <v>114.6159242411272</v>
       </c>
       <c r="M3">
-        <v>1.333653203959017</v>
+        <v>106.9215185884488</v>
       </c>
       <c r="N3">
-        <v>1.33582374555785</v>
+        <v>80.23144207621054</v>
       </c>
       <c r="O3">
-        <v>0.33336423977477</v>
+        <v>56.9646524074324</v>
       </c>
       <c r="P3">
-        <v>4.333301332127097</v>
+        <v>22.33108031255128</v>
       </c>
       <c r="Q3">
-        <v>2.333300177963363</v>
+        <v>104.0721659928281</v>
       </c>
       <c r="R3">
-        <v>7.333304968575562</v>
+        <v>45.23380959338671</v>
       </c>
       <c r="S3">
-        <v>3.331827743709565</v>
+        <v>125.3026916000959</v>
       </c>
       <c r="T3">
-        <v>0.3336032768819995</v>
+        <v>30.04358749503724</v>
       </c>
       <c r="U3">
-        <v>17.38614885653424</v>
+        <v>0.3666392490814142</v>
       </c>
       <c r="V3">
-        <v>0.3333450689156174</v>
+        <v>59.97414568489197</v>
       </c>
       <c r="W3">
-        <v>4.338521089975026</v>
+        <v>38.00323701169208</v>
       </c>
       <c r="X3">
-        <v>0.3353727900434226</v>
+        <v>76.7988596810582</v>
       </c>
       <c r="Y3">
-        <v>2.333301816568903</v>
+        <v>72.00301012040912</v>
       </c>
       <c r="Z3">
-        <v>8.333296272091149</v>
+        <v>52.42771203498845</v>
       </c>
       <c r="AA3">
-        <v>3.333304137724504</v>
+        <v>59.31251400192499</v>
       </c>
       <c r="AB3">
-        <v>0.3333849582427741</v>
+        <v>70.10625655939617</v>
       </c>
       <c r="AC3">
-        <v>3.333304137724504</v>
+        <v>110.0033503046186</v>
       </c>
       <c r="AD3">
-        <v>6.333301739335058</v>
+        <v>58.64724516545387</v>
       </c>
       <c r="AE3">
-        <v>0.333390799688788</v>
+        <v>99.80746267544868</v>
       </c>
       <c r="AF3">
-        <v>1.334161147813612</v>
+        <v>57.79327077536186</v>
       </c>
       <c r="AG3">
-        <v>1.329415225644726</v>
+        <v>115.5626605947734</v>
       </c>
       <c r="AH3">
-        <v>0.3333512977327013</v>
+        <v>145.2714286627688</v>
       </c>
       <c r="AI3">
-        <v>1.333819317576301</v>
+        <v>53.31637952411639</v>
       </c>
       <c r="AJ3">
-        <v>2.333303455144264</v>
+        <v>174.1896963213218</v>
       </c>
       <c r="AK3">
-        <v>0.3333849582427741</v>
+        <v>138.2505577807798</v>
       </c>
       <c r="AL3">
-        <v>2.333303455144264</v>
+        <v>135.832106867768</v>
       </c>
       <c r="AM3">
-        <v>2.333301816568903</v>
+        <v>30.28972997176301</v>
       </c>
       <c r="AN3">
-        <v>0.3333495107208344</v>
+        <v>39.07077877995931</v>
       </c>
       <c r="AO3">
-        <v>2.329800453887995</v>
+        <v>128.4745044028227</v>
       </c>
       <c r="AP3">
-        <v>9.345736518288284</v>
+        <v>32.30735442542326</v>
       </c>
       <c r="AQ3">
-        <v>0.3333541189735611</v>
+        <v>274.4209644613881</v>
       </c>
       <c r="AR3">
-        <v>2.333303455144264</v>
+        <v>31.30068695086996</v>
       </c>
       <c r="AS3">
-        <v>0.3333829043100366</v>
+        <v>142.3652404450087</v>
       </c>
       <c r="AT3">
-        <v>0.3356050008577813</v>
+        <v>80.76221524097669</v>
       </c>
       <c r="AU3">
-        <v>2.333303455144264</v>
+        <v>81.28947855372778</v>
       </c>
       <c r="AV3">
-        <v>2.333687226803675</v>
+        <v>78.59687806067062</v>
       </c>
       <c r="AW3">
-        <v>14.08036478339509</v>
+        <v>0.3391769420901224</v>
       </c>
       <c r="AX3">
-        <v>9.666559199394845</v>
+        <v>79.66206704791215</v>
       </c>
       <c r="AY3">
-        <v>6.341770508814781</v>
+        <v>47.27984587498417</v>
       </c>
       <c r="AZ3">
-        <v>2.333303455144264</v>
+        <v>95.20257940720838</v>
       </c>
       <c r="BA3">
-        <v>0.3333488289437219</v>
+        <v>52.79329467186126</v>
       </c>
       <c r="BB3">
-        <v>6.344861828431515</v>
+        <v>195.4974844598821</v>
       </c>
       <c r="BC3">
-        <v>0.3334426678127951</v>
+        <v>186.5520580254878</v>
       </c>
       <c r="BD3">
-        <v>0.3333931044967549</v>
+        <v>296.9245992277319</v>
       </c>
       <c r="BE3">
-        <v>2.333300177963363</v>
+        <v>34.30311896870633</v>
       </c>
       <c r="BF3">
-        <v>11.29544806763439</v>
+        <v>24.31416771782814</v>
       </c>
       <c r="BG3">
-        <v>7.33323453285077</v>
+        <v>0.3797561293694651</v>
       </c>
       <c r="BH3">
-        <v>2.333303455144264</v>
+        <v>0.338378640536053</v>
       </c>
       <c r="BI3">
-        <v>2.333156382843664</v>
+        <v>0.3391769420901224</v>
       </c>
       <c r="BJ3">
-        <v>2.333303455144264</v>
+        <v>240.5441955701051</v>
       </c>
       <c r="BK3">
-        <v>3.191267807411475</v>
+        <v>62.4356382998118</v>
       </c>
       <c r="BL3">
-        <v>2.334746797358349</v>
+        <v>159.2847387333393</v>
       </c>
       <c r="BM3">
-        <v>4.338937391907977</v>
+        <v>53.8477732468886</v>
       </c>
       <c r="BN3">
-        <v>2.333300177963363</v>
+        <v>46.71740805022504</v>
       </c>
       <c r="BO3">
-        <v>0.333349141138966</v>
+        <v>0.338378640536053</v>
       </c>
       <c r="BP3">
-        <v>0.3333495107208344</v>
+        <v>31.15736517526449</v>
       </c>
       <c r="BQ3">
-        <v>9.333305111456426</v>
+        <v>83.16383115023304</v>
       </c>
       <c r="BR3">
-        <v>0.3333820084019595</v>
+        <v>0.3720906744138919</v>
       </c>
       <c r="BS3">
-        <v>0.3333837783570783</v>
+        <v>187.7124336721327</v>
       </c>
       <c r="BT3">
-        <v>1.333280991746264</v>
+        <v>188.3724594747684</v>
       </c>
       <c r="BU3">
-        <v>2.333300177963363</v>
+        <v>222.6496129671211</v>
       </c>
       <c r="BV3">
-        <v>5.333304086517313</v>
+        <v>130.5797357154232</v>
       </c>
       <c r="BW3">
-        <v>3.333300935426245</v>
+        <v>0.3391769420901224</v>
       </c>
       <c r="BX3">
-        <v>0.3333489475802107</v>
+        <v>116.9217826220986</v>
       </c>
       <c r="BY3">
-        <v>0.3333603974211996</v>
+        <v>58.3680686607356</v>
       </c>
       <c r="BZ3">
-        <v>11.29401263435076</v>
+        <v>61.20767793856703</v>
       </c>
       <c r="CA3">
-        <v>3.333302002871387</v>
+        <v>74.98214594363131</v>
       </c>
       <c r="CB3">
-        <v>4.333272067414239</v>
+        <v>55.12789128629833</v>
       </c>
       <c r="CC3">
-        <v>2.333687226803675</v>
+        <v>48.72330237800354</v>
       </c>
       <c r="CD3">
-        <v>1.332944119639323</v>
+        <v>96.34284353229955</v>
       </c>
       <c r="CE3">
-        <v>2.335403435225696</v>
+        <v>63.20616405234011</v>
       </c>
       <c r="CF3">
-        <v>5.34280463867341</v>
+        <v>122.9983853931651</v>
       </c>
       <c r="CG3">
-        <v>0.3333837783570783</v>
+        <v>165.6509172022837</v>
       </c>
       <c r="CH3">
-        <v>0.3334378312513726</v>
+        <v>210.8819495707826</v>
       </c>
       <c r="CI3">
-        <v>3.336568304029563</v>
+        <v>42.29818689364469</v>
       </c>
       <c r="CJ3">
-        <v>6.333304862160323</v>
+        <v>377.4659141560888</v>
       </c>
       <c r="CK3">
-        <v>0.3334372849776749</v>
+        <v>141.9555763217494</v>
       </c>
       <c r="CL3">
-        <v>4.333304495208051</v>
+        <v>94.57542471760425</v>
       </c>
       <c r="CM3">
-        <v>2.333300177963363</v>
+        <v>77.2407636921435</v>
       </c>
       <c r="CN3">
-        <v>5.345408448720809</v>
+        <v>271.9305586482303</v>
       </c>
       <c r="CO3">
-        <v>2.334746797358349</v>
+        <v>85.24388392129548</v>
       </c>
       <c r="CP3">
-        <v>4.333218677693063</v>
+        <v>143.7220008279271</v>
       </c>
       <c r="CQ3">
-        <v>7.370860775603512</v>
+        <v>57.65800006673016</v>
       </c>
       <c r="CR3">
-        <v>2.333303455144264</v>
+        <v>121.1137023969596</v>
       </c>
       <c r="CS3">
-        <v>2.333301816568903</v>
+        <v>43.2657260657438</v>
       </c>
       <c r="CT3">
-        <v>2.333300177963363</v>
+        <v>132.1101988962079</v>
       </c>
       <c r="CU3">
-        <v>3.333303070304141</v>
+        <v>170.2662326611902</v>
       </c>
       <c r="CV3">
-        <v>2.333300177963363</v>
+        <v>47.37523606416055</v>
       </c>
       <c r="CW3">
-        <v>3.333217255718417</v>
+        <v>125.2195420563418</v>
       </c>
       <c r="CX3">
-        <v>0.3334180492209512</v>
+        <v>59.2616654514718</v>
       </c>
       <c r="CY3">
-        <v>0.3333452143869913</v>
+        <v>120.4140136578764</v>
       </c>
       <c r="CZ3">
-        <v>3.427018744633541</v>
+        <v>355.645339824339</v>
       </c>
       <c r="DA3">
-        <v>7.333301857424278</v>
+        <v>78.30347979007028</v>
       </c>
       <c r="DB3">
-        <v>2.333300177963363</v>
+        <v>155.1354486848536</v>
       </c>
       <c r="DC3">
-        <v>0.3334231476368686</v>
+        <v>99.72859494808375</v>
       </c>
       <c r="DD3">
-        <v>2.333300177963363</v>
+        <v>80.01101849706781</v>
       </c>
       <c r="DE3">
-        <v>4.333304495208051</v>
+        <v>78.37235091649039</v>
       </c>
       <c r="DF3">
-        <v>0.3333447809162451</v>
+        <v>41.49718262212416</v>
       </c>
       <c r="DG3">
-        <v>0.3333448762869933</v>
+        <v>51.05355292403907</v>
       </c>
       <c r="DH3">
-        <v>0.3333449797528118</v>
+        <v>32.30983775121226</v>
       </c>
       <c r="DI3">
-        <v>5.333273475667364</v>
+        <v>39.14098985124627</v>
       </c>
       <c r="DJ3">
-        <v>0.3333495107208344</v>
+        <v>330.0418151756508</v>
       </c>
       <c r="DK3">
-        <v>0.333390094935737</v>
+        <v>251.8330892613752</v>
       </c>
       <c r="DL3">
-        <v>2.334843401951398</v>
+        <v>27.28032729211655</v>
       </c>
       <c r="DM3">
-        <v>1.333280991746264</v>
+        <v>31.12344683534327</v>
       </c>
       <c r="DN3">
-        <v>3.333300935426245</v>
+        <v>204.3286105912906</v>
       </c>
       <c r="DO3">
-        <v>3.333304137724504</v>
+        <v>0.3618551950444016</v>
       </c>
       <c r="DP3">
-        <v>0.3334001612610543</v>
+        <v>70.29047454913834</v>
       </c>
       <c r="DQ3">
-        <v>3.333217255718417</v>
+        <v>132.2506364476049</v>
       </c>
       <c r="DR3">
-        <v>1.333280991746264</v>
+        <v>55.11846635985289</v>
       </c>
       <c r="DS3">
-        <v>3.333217255718417</v>
+        <v>143.8358790386244</v>
       </c>
       <c r="DT3">
-        <v>0.3333837783570783</v>
+        <v>118.5610976729918</v>
       </c>
       <c r="DU3">
-        <v>0.333349141138966</v>
+        <v>89.53930159954547</v>
       </c>
       <c r="DV3">
-        <v>3.333795436174176</v>
+        <v>90.81034859165294</v>
       </c>
       <c r="DW3">
-        <v>4.333283048143025</v>
+        <v>88.2685154442589</v>
       </c>
       <c r="DX3">
-        <v>2.333303455144264</v>
+        <v>82.34997516731757</v>
       </c>
       <c r="DY3">
-        <v>1.333726320618732</v>
+        <v>61.35239638152311</v>
       </c>
       <c r="DZ3">
-        <v>3.338883495531222</v>
+        <v>53.01932927082616</v>
       </c>
       <c r="EA3">
-        <v>4.333272067414239</v>
+        <v>87.92691536604396</v>
       </c>
       <c r="EB3">
-        <v>0.3333688754826897</v>
+        <v>41.32816005256787</v>
       </c>
       <c r="EC3">
-        <v>5.334159398382576</v>
+        <v>154.1296517454498</v>
       </c>
       <c r="ED3">
-        <v>0.3334263954490782</v>
+        <v>74.85406698504866</v>
       </c>
       <c r="EE3">
-        <v>0.3333509840641246</v>
+        <v>188.8246619188873</v>
       </c>
       <c r="EF3">
-        <v>3.333304137724504</v>
+        <v>112.1692829374618</v>
       </c>
       <c r="EG3">
-        <v>11.5286772846816</v>
+        <v>97.69200753159286</v>
       </c>
       <c r="EH3">
-        <v>1.325917895676276</v>
+        <v>0.3892587583440035</v>
       </c>
       <c r="EI3">
-        <v>2.333301816568903</v>
+        <v>61.60960251751692</v>
       </c>
       <c r="EJ3">
-        <v>5.146089266129641</v>
+        <v>63.16216433025858</v>
       </c>
       <c r="EK3">
-        <v>1.333241051989003</v>
+        <v>106.2847330801389</v>
       </c>
       <c r="EL3">
-        <v>3.333304137724504</v>
+        <v>43.12257841394185</v>
       </c>
       <c r="EM3">
-        <v>5.333219549236314</v>
+        <v>96.14250936959294</v>
       </c>
       <c r="EN3">
-        <v>4.084012039658124</v>
+        <v>146.8015290246813</v>
       </c>
       <c r="EO3">
-        <v>0.3333695917251454</v>
+        <v>134.138889239326</v>
       </c>
       <c r="EP3">
-        <v>5.343265540763128</v>
+        <v>184.5886767958623</v>
       </c>
       <c r="EQ3">
-        <v>0.333390799688788</v>
+        <v>73.46872492617747</v>
       </c>
       <c r="ER3">
-        <v>2.33542202082588</v>
+        <v>58.45706484547991</v>
       </c>
       <c r="ES3">
-        <v>2.333303455144264</v>
+        <v>92.03712284550195</v>
       </c>
       <c r="ET3">
-        <v>0.3333849582427741</v>
+        <v>75.39776916879778</v>
       </c>
       <c r="EU3">
-        <v>11.33330211749909</v>
+        <v>81.86194907298787</v>
       </c>
       <c r="EV3">
-        <v>0.3333837783570783</v>
+        <v>175.2643259429647</v>
       </c>
       <c r="EW3">
-        <v>2.333303455144264</v>
+        <v>46.2854972393872</v>
       </c>
       <c r="EX3">
-        <v>2.333300177963363</v>
+        <v>76.13666029144082</v>
       </c>
       <c r="EY3">
-        <v>0.3334210313782402</v>
+        <v>139.9330590635828</v>
       </c>
       <c r="EZ3">
-        <v>3.341209648609215</v>
+        <v>157.8045188779947</v>
       </c>
       <c r="FA3">
-        <v>4.339622390346724</v>
+        <v>71.28591494994686</v>
       </c>
       <c r="FB3">
-        <v>0.3351099644999114</v>
+        <v>84.39418912783387</v>
       </c>
       <c r="FC3">
-        <v>0.3333452143869913</v>
+        <v>59.27354022741584</v>
       </c>
       <c r="FD3">
-        <v>3.336143994902284</v>
+        <v>118.9496021108529</v>
       </c>
       <c r="FE3">
-        <v>5.339344333012555</v>
+        <v>59.26341615356599</v>
       </c>
       <c r="FF3">
-        <v>12.33330215568777</v>
+        <v>63.84086743808813</v>
       </c>
       <c r="FG3">
-        <v>7.333301857424278</v>
+        <v>14.86683525159665</v>
       </c>
       <c r="FH3">
-        <v>4.333218677693063</v>
+        <v>284.5685454242779</v>
       </c>
       <c r="FI3">
-        <v>5.333233646874363</v>
+        <v>42.08925037274878</v>
       </c>
       <c r="FJ3">
-        <v>6.166314630007154</v>
+        <v>112.6025623327425</v>
       </c>
       <c r="FK3">
-        <v>2.334790405338881</v>
+        <v>297.2157235201281</v>
       </c>
       <c r="FL3">
-        <v>6.333220137296037</v>
+        <v>160.4378921900108</v>
       </c>
       <c r="FM3">
-        <v>1.333751082932303</v>
+        <v>127.3614445490684</v>
       </c>
       <c r="FN3">
-        <v>7.340851709958677</v>
+        <v>21.31732417530988</v>
       </c>
       <c r="FO3">
-        <v>0.333349141138966</v>
+        <v>47.05495018170538</v>
       </c>
       <c r="FP3">
-        <v>0.3333484852563305</v>
+        <v>73.88387937744469</v>
       </c>
       <c r="FQ3">
-        <v>1.330474737113158</v>
+        <v>36.04041591092466</v>
       </c>
       <c r="FR3">
-        <v>2.333300177963363</v>
+        <v>221.9994817101862</v>
       </c>
       <c r="FS3">
-        <v>7.341640596870174</v>
+        <v>36.91634889313387</v>
       </c>
       <c r="FT3">
-        <v>0.333390094935737</v>
+        <v>46.30357988444693</v>
       </c>
       <c r="FU3">
-        <v>2.333300177963363</v>
+        <v>40.29547614812223</v>
       </c>
       <c r="FV3">
-        <v>0.3333512977327013</v>
+        <v>66.22007279492216</v>
       </c>
       <c r="FW3">
-        <v>0.3339442550220222</v>
+        <v>79.03725994838312</v>
       </c>
       <c r="FX3">
-        <v>1.334134014158527</v>
+        <v>76.2535240786203</v>
       </c>
       <c r="FY3">
-        <v>0.3334156364961982</v>
+        <v>122.247782160608</v>
       </c>
       <c r="FZ3">
-        <v>2.333303455144264</v>
+        <v>119.6069984167079</v>
       </c>
       <c r="GA3">
-        <v>2.333301816568903</v>
+        <v>54.88307145559033</v>
       </c>
       <c r="GB3">
-        <v>4.558264326447406</v>
+        <v>80.12465822267781</v>
       </c>
       <c r="GC3">
-        <v>3.333300935426245</v>
+        <v>84.51477598000764</v>
       </c>
       <c r="GD3">
-        <v>5.333219549236314</v>
+        <v>0.338378640536053</v>
       </c>
       <c r="GE3">
-        <v>3.332913165876831</v>
+        <v>129.8669196204623</v>
       </c>
       <c r="GF3">
-        <v>2.333303455144264</v>
+        <v>38.27558163166466</v>
       </c>
       <c r="GG3">
-        <v>3.333304137724504</v>
+        <v>46.27530378145883</v>
       </c>
       <c r="GH3">
-        <v>0.3334128321553673</v>
+        <v>0.338378640536053</v>
       </c>
       <c r="GI3">
-        <v>1.334161147813612</v>
+        <v>0.3391769420901224</v>
       </c>
       <c r="GJ3">
-        <v>2.333303455144264</v>
+        <v>58.30019237161476</v>
       </c>
       <c r="GK3">
-        <v>1.334127911240743</v>
+        <v>100.8922607666779</v>
       </c>
       <c r="GL3">
-        <v>0.3333877759130078</v>
+        <v>226.3898084499713</v>
       </c>
       <c r="GM3">
-        <v>2.333301816568903</v>
+        <v>132.4257344840792</v>
       </c>
       <c r="GN3">
-        <v>0.3356201129623841</v>
+        <v>134.2916319263548</v>
       </c>
       <c r="GO3">
-        <v>0.3333505721322159</v>
+        <v>141.107169397277</v>
       </c>
       <c r="GP3">
-        <v>1.33314464638015</v>
+        <v>124.4625876672581</v>
       </c>
       <c r="GQ3">
-        <v>3.333217255718417</v>
+        <v>169.0532923791213</v>
       </c>
       <c r="GR3">
-        <v>0.3333849582427741</v>
+        <v>66.57630864975842</v>
       </c>
       <c r="GS3">
-        <v>7.333301857424278</v>
+        <v>156.0212349341049</v>
+      </c>
+      <c r="GT3">
+        <v>24.29763818901209</v>
+      </c>
+      <c r="GU3">
+        <v>143.4272339212164</v>
+      </c>
+      <c r="GV3">
+        <v>42.41498383726333</v>
+      </c>
+      <c r="GW3">
+        <v>279.497442605361</v>
+      </c>
+      <c r="GX3">
+        <v>225.2096862223249</v>
+      </c>
+      <c r="GY3">
+        <v>147.847095232709</v>
+      </c>
+      <c r="GZ3">
+        <v>245.9361389917123</v>
+      </c>
+      <c r="HA3">
+        <v>111.3019640856886</v>
+      </c>
+      <c r="HB3">
+        <v>88.78899815355199</v>
+      </c>
+      <c r="HC3">
+        <v>154.2765510789471</v>
+      </c>
+      <c r="HD3">
+        <v>50.10057244740835</v>
+      </c>
+      <c r="HE3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="HF3">
+        <v>79.38090013098022</v>
+      </c>
+      <c r="HG3">
+        <v>105.2167048596528</v>
+      </c>
+      <c r="HH3">
+        <v>31.29610562699929</v>
+      </c>
+      <c r="HI3">
+        <v>43.24730252683542</v>
+      </c>
+      <c r="HJ3">
+        <v>87.79975698159242</v>
+      </c>
+      <c r="HK3">
+        <v>190.3655416288284</v>
+      </c>
+      <c r="HL3">
+        <v>85.64931040183257</v>
+      </c>
+      <c r="HM3">
+        <v>38.40133271970912</v>
+      </c>
+      <c r="HN3">
+        <v>142.295121090313</v>
+      </c>
+      <c r="HO3">
+        <v>70.6188296247914</v>
+      </c>
+      <c r="HP3">
+        <v>53.3115062954972</v>
+      </c>
+      <c r="HQ3">
+        <v>97.5098743410187</v>
+      </c>
+      <c r="HR3">
+        <v>189.2426052624474</v>
+      </c>
+      <c r="HS3">
+        <v>113.40432103524</v>
+      </c>
+      <c r="HT3">
+        <v>121.7548534687039</v>
+      </c>
+      <c r="HU3">
+        <v>132.5473910880917</v>
+      </c>
+      <c r="HV3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="HW3">
+        <v>61.12616219791695</v>
+      </c>
+      <c r="HX3">
+        <v>64.37505600525313</v>
+      </c>
+      <c r="HY3">
+        <v>186.0619409426925</v>
+      </c>
+      <c r="HZ3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="IA3">
+        <v>63.78137583623838</v>
+      </c>
+      <c r="IB3">
+        <v>64.67632491770156</v>
+      </c>
+      <c r="IC3">
+        <v>106.2598897585124</v>
+      </c>
+      <c r="ID3">
+        <v>56.07410363771363</v>
+      </c>
+      <c r="IE3">
+        <v>182.2879951955434</v>
+      </c>
+      <c r="IF3">
+        <v>173.2821517304467</v>
+      </c>
+      <c r="IG3">
+        <v>73.59162649298021</v>
+      </c>
+      <c r="IH3">
+        <v>0.3891231735472144</v>
+      </c>
+      <c r="II3">
+        <v>48.29090550271606</v>
+      </c>
+      <c r="IJ3">
+        <v>47.72820101935074</v>
+      </c>
+      <c r="IK3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="IL3">
+        <v>69.12948510919485</v>
+      </c>
+      <c r="IM3">
+        <v>0.338378640536053</v>
+      </c>
+      <c r="IN3">
+        <v>0.3720906744138919</v>
+      </c>
+      <c r="IO3">
+        <v>172.5731120397473</v>
+      </c>
+      <c r="IP3">
+        <v>61.51929718133916</v>
+      </c>
+      <c r="IQ3">
+        <v>42.7379117149952</v>
+      </c>
+      <c r="IR3">
+        <v>80.84106420887562</v>
+      </c>
+      <c r="IS3">
+        <v>172.2223958371764</v>
+      </c>
+      <c r="IT3">
+        <v>135.1961948354676</v>
+      </c>
+      <c r="IU3">
+        <v>121.5587967968363</v>
+      </c>
+      <c r="IV3">
+        <v>173.7964595518965</v>
+      </c>
+      <c r="IW3">
+        <v>101.5491005108999</v>
+      </c>
+      <c r="IX3">
+        <v>206.276207271946</v>
+      </c>
+      <c r="IY3">
+        <v>37.31783459318284</v>
+      </c>
+      <c r="IZ3">
+        <v>47.29363270497702</v>
+      </c>
+      <c r="JA3">
+        <v>44.00310668060349</v>
+      </c>
+      <c r="JB3">
+        <v>47.27765595312214</v>
+      </c>
+      <c r="JC3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="JD3">
+        <v>112.0813582463048</v>
+      </c>
+      <c r="JE3">
+        <v>165.5804466470561</v>
+      </c>
+      <c r="JF3">
+        <v>89.46010665961587</v>
+      </c>
+      <c r="JG3">
+        <v>136.741760085396</v>
+      </c>
+      <c r="JH3">
+        <v>173.3664747314187</v>
+      </c>
+      <c r="JI3">
+        <v>33.15468692666888</v>
+      </c>
+      <c r="JJ3">
+        <v>123.5102993981298</v>
+      </c>
+      <c r="JK3">
+        <v>159.0356216952092</v>
+      </c>
+      <c r="JL3">
+        <v>133.0522516018035</v>
+      </c>
+      <c r="JM3">
+        <v>256.0893382754298</v>
+      </c>
+      <c r="JN3">
+        <v>109.6097227870579</v>
+      </c>
+      <c r="JO3">
+        <v>62.31575406894716</v>
+      </c>
+      <c r="JP3">
+        <v>61.11018388242738</v>
+      </c>
+      <c r="JQ3">
+        <v>166.4386549656334</v>
+      </c>
+      <c r="JR3">
+        <v>43.4822010566831</v>
+      </c>
+      <c r="JS3">
+        <v>110.6827788744812</v>
+      </c>
+      <c r="JT3">
+        <v>103.6397774426903</v>
+      </c>
+      <c r="JU3">
+        <v>329.4785428453627</v>
+      </c>
+      <c r="JV3">
+        <v>132.6592162909873</v>
+      </c>
+      <c r="JW3">
+        <v>150.2871681428435</v>
+      </c>
+      <c r="JX3">
+        <v>28.30082272368767</v>
+      </c>
+      <c r="JY3">
+        <v>209.7185995846903</v>
+      </c>
+      <c r="JZ3">
+        <v>44.22643060632053</v>
+      </c>
+      <c r="KA3">
+        <v>110.6854586096419</v>
+      </c>
+      <c r="KB3">
+        <v>43.29925260173115</v>
+      </c>
+      <c r="KC3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="KD3">
+        <v>69.75130637061585</v>
+      </c>
+      <c r="KE3">
+        <v>101.8037339400184</v>
+      </c>
+      <c r="KF3">
+        <v>59.80065110264031</v>
+      </c>
+      <c r="KG3">
+        <v>85.53684991039215</v>
+      </c>
+      <c r="KH3">
+        <v>154.9343041258224</v>
+      </c>
+      <c r="KI3">
+        <v>47.26893687984261</v>
+      </c>
+      <c r="KJ3">
+        <v>101.201404995984</v>
+      </c>
+      <c r="KK3">
+        <v>111.5440763409052</v>
+      </c>
+      <c r="KL3">
+        <v>59.3454348920419</v>
+      </c>
+      <c r="KM3">
+        <v>161.0254320994261</v>
+      </c>
+      <c r="KN3">
+        <v>32.29523977054551</v>
+      </c>
+      <c r="KO3">
+        <v>177.2693796964217</v>
+      </c>
+      <c r="KP3">
+        <v>79.29980996315345</v>
+      </c>
+      <c r="KQ3">
+        <v>111.3248590172951</v>
+      </c>
+      <c r="KR3">
+        <v>37.57326140319019</v>
+      </c>
+      <c r="KS3">
+        <v>70.76428959667044</v>
+      </c>
+      <c r="KT3">
+        <v>89.89168156235529</v>
+      </c>
+      <c r="KU3">
+        <v>61.88919319033769</v>
+      </c>
+      <c r="KV3">
+        <v>45.79830680838985</v>
+      </c>
+      <c r="KW3">
+        <v>72.46755773185515</v>
+      </c>
+      <c r="KX3">
+        <v>63.11313218365142</v>
+      </c>
+      <c r="KY3">
+        <v>150.6253646666922</v>
+      </c>
+      <c r="KZ3">
+        <v>58.63178817824622</v>
+      </c>
+      <c r="LA3">
+        <v>116.9091010184672</v>
+      </c>
+      <c r="LB3">
+        <v>57.74608345640571</v>
+      </c>
+      <c r="LC3">
+        <v>40.27218861682324</v>
+      </c>
+      <c r="LD3">
+        <v>187.2175212775671</v>
+      </c>
+      <c r="LE3">
+        <v>197.1967194796502</v>
+      </c>
+      <c r="LF3">
+        <v>149.2576806382602</v>
+      </c>
+      <c r="LG3">
+        <v>71.41344570531618</v>
+      </c>
+      <c r="LH3">
+        <v>48.00740872547803</v>
+      </c>
+      <c r="LI3">
+        <v>172.3260963422328</v>
+      </c>
+      <c r="LJ3">
+        <v>84.12336661591455</v>
+      </c>
+      <c r="LK3">
+        <v>37.29036127945077</v>
+      </c>
+      <c r="LL3">
+        <v>1.42057979582791</v>
+      </c>
+      <c r="LM3">
+        <v>94.67805750591164</v>
+      </c>
+      <c r="LN3">
+        <v>260.5430845662485</v>
+      </c>
+      <c r="LO3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="LP3">
+        <v>84.88669310496579</v>
+      </c>
+      <c r="LQ3">
+        <v>51.47479239252711</v>
+      </c>
+      <c r="LR3">
+        <v>46.30026459633051</v>
+      </c>
+      <c r="LS3">
+        <v>142.6550484482787</v>
+      </c>
+      <c r="LT3">
+        <v>73.34176620083834</v>
+      </c>
+      <c r="LU3">
+        <v>53.92911292620511</v>
+      </c>
+      <c r="LV3">
+        <v>24.32590013237683</v>
+      </c>
+      <c r="LW3">
+        <v>49.26469709856953</v>
+      </c>
+      <c r="LX3">
+        <v>17.98461916033235</v>
+      </c>
+      <c r="LY3">
+        <v>135.7155298489351</v>
+      </c>
+      <c r="LZ3">
+        <v>80.99475050444043</v>
+      </c>
+      <c r="MA3">
+        <v>165.9277109133924</v>
+      </c>
+      <c r="MB3">
+        <v>71.86108472231811</v>
+      </c>
+      <c r="MC3">
+        <v>132.1723057201985</v>
+      </c>
+      <c r="MD3">
+        <v>68.94672167450136</v>
+      </c>
+      <c r="ME3">
+        <v>53.83092989658633</v>
+      </c>
+      <c r="MF3">
+        <v>0.3853040475930957</v>
+      </c>
+      <c r="MG3">
+        <v>143.088493111197</v>
+      </c>
+      <c r="MH3">
+        <v>76.40658392663944</v>
+      </c>
+      <c r="MI3">
+        <v>59.30809298352789</v>
+      </c>
+      <c r="MJ3">
+        <v>197.6254736275453</v>
+      </c>
+      <c r="MK3">
+        <v>83.86790955540341</v>
+      </c>
+      <c r="ML3">
+        <v>99.4544932694652</v>
+      </c>
+      <c r="MM3">
+        <v>122.9290387276871</v>
+      </c>
+      <c r="MN3">
+        <v>58.42051354302189</v>
+      </c>
+      <c r="MO3">
+        <v>41.54177412578758</v>
+      </c>
+      <c r="MP3">
+        <v>103.8602986285563</v>
+      </c>
+      <c r="MQ3">
+        <v>147.6256613133047</v>
+      </c>
+      <c r="MR3">
+        <v>120.8577241857967</v>
+      </c>
+      <c r="MS3">
+        <v>257.7786022785912</v>
+      </c>
+      <c r="MT3">
+        <v>252.2161131840799</v>
+      </c>
+      <c r="MU3">
+        <v>28.89279575737365</v>
+      </c>
+      <c r="MV3">
+        <v>113.3519216611333</v>
+      </c>
+      <c r="MW3">
+        <v>60.00055013607484</v>
+      </c>
+      <c r="MX3">
+        <v>63.83180218525665</v>
+      </c>
+      <c r="MY3">
+        <v>165.8690906889634</v>
+      </c>
+      <c r="MZ3">
+        <v>36.28275327552289</v>
+      </c>
+      <c r="NA3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="NB3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="NC3">
+        <v>25.91563196587488</v>
+      </c>
+      <c r="ND3">
+        <v>57.48648917625813</v>
+      </c>
+      <c r="NE3">
+        <v>22.29766512763351</v>
+      </c>
+      <c r="NF3">
+        <v>138.1956763320023</v>
+      </c>
+      <c r="NG3">
+        <v>183.1058045676246</v>
+      </c>
+      <c r="NH3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="NI3">
+        <v>238.1293730148093</v>
+      </c>
+      <c r="NJ3">
+        <v>103.2484749038404</v>
+      </c>
+      <c r="NK3">
+        <v>53.78697924456876</v>
+      </c>
+      <c r="NL3">
+        <v>69.6048534840977</v>
+      </c>
+      <c r="NM3">
+        <v>90.86512874320631</v>
+      </c>
+      <c r="NN3">
+        <v>96.49851185080952</v>
+      </c>
+      <c r="NO3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="NP3">
+        <v>56.77032785868101</v>
+      </c>
+      <c r="NQ3">
+        <v>65.29935531294946</v>
+      </c>
+      <c r="NR3">
+        <v>22.31968148883375</v>
+      </c>
+      <c r="NS3">
+        <v>128.2610347680289</v>
+      </c>
+      <c r="NT3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="NU3">
+        <v>115.9959985186352</v>
+      </c>
+      <c r="NV3">
+        <v>0.3391769420901224</v>
+      </c>
+      <c r="NW3">
+        <v>122.2996483009878</v>
+      </c>
+      <c r="NX3">
+        <v>49.0731102965289</v>
+      </c>
+      <c r="NY3">
+        <v>170.418842477278</v>
+      </c>
+      <c r="NZ3">
+        <v>116.0159312874129</v>
+      </c>
+      <c r="OA3">
+        <v>38.5748145727397</v>
+      </c>
+      <c r="OB3">
+        <v>109.2361178505731</v>
+      </c>
+      <c r="OC3">
+        <v>75.23433057746929</v>
+      </c>
+      <c r="OD3">
+        <v>92.01751881110927</v>
+      </c>
+      <c r="OE3">
+        <v>77.25655145549872</v>
+      </c>
+      <c r="OF3">
+        <v>0.3487300708483363</v>
+      </c>
+      <c r="OG3">
+        <v>84.31500770317993</v>
+      </c>
+      <c r="OH3">
+        <v>47.26118147643778</v>
+      </c>
+      <c r="OI3">
+        <v>12.52840991527396</v>
+      </c>
+      <c r="OJ3">
+        <v>313.4922449666457</v>
+      </c>
+      <c r="OK3">
+        <v>92.20736273097585</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>6.333310633233672</v>
+        <v>186.1756595959028</v>
       </c>
       <c r="C4">
-        <v>17.33330285442457</v>
+        <v>2.919917447811345</v>
       </c>
       <c r="D4">
-        <v>0.3378292195061526</v>
+        <v>169.8130416488613</v>
       </c>
       <c r="E4">
-        <v>6.333310633233672</v>
+        <v>146.4560074948758</v>
       </c>
       <c r="F4">
-        <v>3.333303220038062</v>
+        <v>234.6498217300224</v>
       </c>
       <c r="G4">
-        <v>4.334048991718322</v>
+        <v>125.7767872886117</v>
       </c>
       <c r="H4">
-        <v>0.3333516591411043</v>
+        <v>106.1932558383301</v>
       </c>
       <c r="I4">
-        <v>0.3333513829362167</v>
+        <v>119.8963777326566</v>
       </c>
       <c r="J4">
-        <v>2.333302516003238</v>
+        <v>1.954912979623497</v>
       </c>
       <c r="K4">
-        <v>0.3333531871662024</v>
+        <v>85.75249010730623</v>
       </c>
       <c r="L4">
-        <v>0.3333531871662024</v>
+        <v>0.3959096664944446</v>
       </c>
       <c r="M4">
-        <v>1.334258079876005</v>
+        <v>43.68653721322593</v>
       </c>
       <c r="N4">
-        <v>0.3336074542411399</v>
+        <v>0.3806908887050913</v>
       </c>
       <c r="O4">
-        <v>5.332881542071242</v>
+        <v>0.4042433153125087</v>
       </c>
       <c r="P4">
-        <v>0.3333524960214233</v>
+        <v>0.3353956414845822</v>
       </c>
       <c r="Q4">
-        <v>0.3333531871662024</v>
+        <v>95.55966285290218</v>
       </c>
       <c r="R4">
-        <v>0.3333504686412065</v>
+        <v>0.3616539839817706</v>
       </c>
       <c r="S4">
-        <v>3.334784218165687</v>
+        <v>0.3465079410189652</v>
       </c>
       <c r="T4">
-        <v>1.070383596575258</v>
+        <v>0.3421147577294562</v>
       </c>
       <c r="U4">
-        <v>34.21275379101976</v>
+        <v>0.3702428270355576</v>
       </c>
       <c r="V4">
-        <v>4.333310340673365</v>
+        <v>28.66617275211919</v>
       </c>
       <c r="W4">
-        <v>5.344188752109258</v>
+        <v>73.64142101596374</v>
       </c>
       <c r="X4">
-        <v>4.840190301620984</v>
+        <v>65.86630497527676</v>
       </c>
       <c r="Y4">
-        <v>0.3333522850422327</v>
+        <v>68.21654634458575</v>
       </c>
       <c r="Z4">
-        <v>0.3333553121005774</v>
+        <v>0.3610880051044357</v>
       </c>
       <c r="AA4">
-        <v>0.3333509705751529</v>
+        <v>0.3487694971193337</v>
       </c>
       <c r="AB4">
-        <v>0.3333931920968041</v>
+        <v>40.52307491438867</v>
       </c>
       <c r="AC4">
-        <v>0.3333509705751529</v>
+        <v>134.5956259638317</v>
       </c>
       <c r="AD4">
-        <v>0.3333522521744743</v>
+        <v>11.74707563022865</v>
       </c>
       <c r="AE4">
-        <v>3.331190529793636</v>
+        <v>21.83561169480935</v>
       </c>
       <c r="AF4">
-        <v>0.3334157931502915</v>
+        <v>58.79359074797516</v>
       </c>
       <c r="AG4">
-        <v>3.337192761071173</v>
+        <v>304.2747139215411</v>
       </c>
       <c r="AH4">
-        <v>5.333298368984564</v>
+        <v>0.3581981591428262</v>
       </c>
       <c r="AI4">
-        <v>0.3334122851654938</v>
+        <v>0.3448558441605282</v>
       </c>
       <c r="AJ4">
-        <v>0.3333513829362167</v>
+        <v>86.41471939311124</v>
       </c>
       <c r="AK4">
-        <v>0.3333931920968041</v>
+        <v>0.3872050079320387</v>
       </c>
       <c r="AL4">
-        <v>0.3333513829362167</v>
+        <v>313.8444068202568</v>
       </c>
       <c r="AM4">
-        <v>0.3333522850422327</v>
+        <v>0.3503406730806076</v>
       </c>
       <c r="AN4">
-        <v>2.333302516003238</v>
+        <v>20.57765469231375</v>
       </c>
       <c r="AO4">
-        <v>3.336796958205826</v>
+        <v>134.1072487272381</v>
       </c>
       <c r="AP4">
-        <v>6.099182074416447</v>
+        <v>0.3517929023230382</v>
       </c>
       <c r="AQ4">
-        <v>6.333292715358382</v>
+        <v>174.2107704316918</v>
       </c>
       <c r="AR4">
-        <v>0.3333513829362167</v>
+        <v>0.3586807098798025</v>
       </c>
       <c r="AS4">
-        <v>0.3334239537585262</v>
+        <v>397.471958572982</v>
       </c>
       <c r="AT4">
-        <v>0.3393019989529573</v>
+        <v>158.7191217526039</v>
       </c>
       <c r="AU4">
-        <v>0.3333513829362167</v>
+        <v>0.3646906645085251</v>
       </c>
       <c r="AV4">
-        <v>1.332952120584829</v>
+        <v>177.0483177295585</v>
       </c>
       <c r="AW4">
-        <v>23.64964480666811</v>
+        <v>0.3370105306941446</v>
       </c>
       <c r="AX4">
-        <v>5.102196633334356</v>
+        <v>34.98375653927265</v>
       </c>
       <c r="AY4">
-        <v>0.3334389515449215</v>
+        <v>0.3434799049441449</v>
       </c>
       <c r="AZ4">
-        <v>0.3333513829362167</v>
+        <v>13.3730645602903</v>
       </c>
       <c r="BA4">
-        <v>5.333303814754445</v>
+        <v>111.4479479665675</v>
       </c>
       <c r="BB4">
-        <v>0.3334745846442259</v>
+        <v>207.4789943768276</v>
       </c>
       <c r="BC4">
-        <v>0.3336949389287664</v>
+        <v>222.0613394748535</v>
       </c>
       <c r="BD4">
-        <v>0.3334125120167913</v>
+        <v>1032.52725513666</v>
       </c>
       <c r="BE4">
-        <v>0.3333531871662024</v>
+        <v>0.3604006556023204</v>
       </c>
       <c r="BF4">
-        <v>10.3660843152825</v>
+        <v>0.346737244708719</v>
       </c>
       <c r="BG4">
-        <v>0.3333897290528447</v>
+        <v>0.3691646135446878</v>
       </c>
       <c r="BH4">
-        <v>0.3333513829362167</v>
+        <v>0.3370442562485932</v>
       </c>
       <c r="BI4">
-        <v>2.333485309313661</v>
+        <v>0.3370105306941446</v>
       </c>
       <c r="BJ4">
-        <v>0.3333513829362167</v>
+        <v>620.1326100960891</v>
       </c>
       <c r="BK4">
-        <v>0.3344926778412941</v>
+        <v>59.48620215719095</v>
       </c>
       <c r="BL4">
-        <v>1.329612264768954</v>
+        <v>0.3616918279706761</v>
       </c>
       <c r="BM4">
-        <v>0.3334264715853484</v>
+        <v>11.70970561527249</v>
       </c>
       <c r="BN4">
-        <v>0.3333531871662024</v>
+        <v>140.0190952637207</v>
       </c>
       <c r="BO4">
-        <v>3.333303220038062</v>
+        <v>0.3370442562485932</v>
       </c>
       <c r="BP4">
-        <v>2.333302516003238</v>
+        <v>10.49718979490494</v>
       </c>
       <c r="BQ4">
-        <v>0.3333503823240531</v>
+        <v>69.40970957328103</v>
       </c>
       <c r="BR4">
-        <v>0.333389771508582</v>
+        <v>57.29359155316797</v>
       </c>
       <c r="BS4">
-        <v>0.3333918239163545</v>
+        <v>51.92237025677236</v>
       </c>
       <c r="BT4">
-        <v>1.333357664095884</v>
+        <v>56.24906534427694</v>
       </c>
       <c r="BU4">
-        <v>0.3333531871662024</v>
+        <v>487.0137026431375</v>
       </c>
       <c r="BV4">
-        <v>0.3333509678734868</v>
+        <v>14.0389165697763</v>
       </c>
       <c r="BW4">
-        <v>0.3333527335765886</v>
+        <v>0.3370105306941446</v>
       </c>
       <c r="BX4">
-        <v>4.333303588757826</v>
+        <v>35.64403759654744</v>
       </c>
       <c r="BY4">
-        <v>3.332613469202449</v>
+        <v>6.14999853834202</v>
       </c>
       <c r="BZ4">
-        <v>0.3623479885803325</v>
+        <v>0.4497648355577115</v>
       </c>
       <c r="CA4">
-        <v>0.3333521459020543</v>
+        <v>130.4002770655005</v>
       </c>
       <c r="CB4">
-        <v>1.33333915687935</v>
+        <v>18.50658282732808</v>
       </c>
       <c r="CC4">
-        <v>1.332952120584829</v>
+        <v>0.365045084231205</v>
       </c>
       <c r="CD4">
-        <v>3.333001244160372</v>
+        <v>33.26840408221657</v>
       </c>
       <c r="CE4">
-        <v>0.3334147444943512</v>
+        <v>25.40341028888501</v>
       </c>
       <c r="CF4">
-        <v>2.312565487943531</v>
+        <v>22.61904170498653</v>
       </c>
       <c r="CG4">
-        <v>0.3333918239163545</v>
+        <v>509.8785898362914</v>
       </c>
       <c r="CH4">
-        <v>1.33346818466327</v>
+        <v>242.7319054721949</v>
       </c>
       <c r="CI4">
-        <v>1.333827937967223</v>
+        <v>0.3589421994661711</v>
       </c>
       <c r="CJ4">
-        <v>0.3333505329287683</v>
+        <v>222.7421624459752</v>
       </c>
       <c r="CK4">
-        <v>2.34003623178597</v>
+        <v>74.66183884193744</v>
       </c>
       <c r="CL4">
-        <v>0.3333507546120192</v>
+        <v>21.99779286044327</v>
       </c>
       <c r="CM4">
-        <v>0.3333531871662024</v>
+        <v>0.3672609923176686</v>
       </c>
       <c r="CN4">
-        <v>0.3335176062993804</v>
+        <v>1100.223591399936</v>
       </c>
       <c r="CO4">
-        <v>1.329612264768954</v>
+        <v>0.3595734092374653</v>
       </c>
       <c r="CP4">
-        <v>0.3333921358543598</v>
+        <v>151.8904806333865</v>
       </c>
       <c r="CQ4">
-        <v>0.3335809115002603</v>
+        <v>134.9252679237956</v>
       </c>
       <c r="CR4">
-        <v>0.3333513829362167</v>
+        <v>79.49864458407481</v>
       </c>
       <c r="CS4">
-        <v>0.3333522850422327</v>
+        <v>0.3939271504207268</v>
       </c>
       <c r="CT4">
-        <v>0.3333531871662024</v>
+        <v>35.46856238071981</v>
       </c>
       <c r="CU4">
-        <v>0.3333515582349092</v>
+        <v>0.3587180057497435</v>
       </c>
       <c r="CV4">
-        <v>0.3333531871662024</v>
+        <v>17.26923709792124</v>
       </c>
       <c r="CW4">
-        <v>0.3333928651426997</v>
+        <v>148.2953852257633</v>
       </c>
       <c r="CX4">
-        <v>0.3334837715488003</v>
+        <v>0.3921698731826901</v>
       </c>
       <c r="CY4">
-        <v>3.333310055662725</v>
+        <v>58.38978194436292</v>
       </c>
       <c r="CZ4">
-        <v>0.3687335848812408</v>
+        <v>491.4112560076845</v>
       </c>
       <c r="DA4">
-        <v>0.3333521814595418</v>
+        <v>0.3480419251406733</v>
       </c>
       <c r="DB4">
-        <v>0.3333531871662024</v>
+        <v>36.50677195181485</v>
       </c>
       <c r="DC4">
-        <v>0.3334557543486044</v>
+        <v>21.88779288336423</v>
       </c>
       <c r="DD4">
-        <v>0.3333531871662024</v>
+        <v>97.86762538811504</v>
       </c>
       <c r="DE4">
-        <v>0.3333507546120192</v>
+        <v>142.5757327615111</v>
       </c>
       <c r="DF4">
-        <v>11.33331090492797</v>
+        <v>23.99587143932529</v>
       </c>
       <c r="DG4">
-        <v>7.33331071807553</v>
+        <v>0.3873468354197775</v>
       </c>
       <c r="DH4">
-        <v>5.333310515363057</v>
+        <v>0.3450459613351877</v>
       </c>
       <c r="DI4">
-        <v>0.3333667539797818</v>
+        <v>8.517864015790471</v>
       </c>
       <c r="DJ4">
-        <v>2.333302516003238</v>
+        <v>178.967426606849</v>
       </c>
       <c r="DK4">
-        <v>4.331217330397217</v>
+        <v>173.0322487208717</v>
       </c>
       <c r="DL4">
-        <v>0.3334135195712952</v>
+        <v>0.3624622464017678</v>
       </c>
       <c r="DM4">
-        <v>1.333357664095884</v>
+        <v>18.23507653393337</v>
       </c>
       <c r="DN4">
-        <v>0.3333527335765886</v>
+        <v>376.2561385374458</v>
       </c>
       <c r="DO4">
-        <v>0.3333509705751529</v>
+        <v>0.3617266706504221</v>
       </c>
       <c r="DP4">
-        <v>0.3334155264160844</v>
+        <v>0.3545975597238253</v>
       </c>
       <c r="DQ4">
-        <v>0.3333928651426997</v>
+        <v>0.3667589054883709</v>
       </c>
       <c r="DR4">
-        <v>1.333357664095884</v>
+        <v>51.49876827665904</v>
       </c>
       <c r="DS4">
-        <v>0.3333928651426997</v>
+        <v>72.79055181139144</v>
       </c>
       <c r="DT4">
-        <v>0.3333918239163545</v>
+        <v>242.231001544047</v>
       </c>
       <c r="DU4">
-        <v>3.333303220038062</v>
+        <v>9.083209163933583</v>
       </c>
       <c r="DV4">
-        <v>1.332846851360206</v>
+        <v>54.83382660374389</v>
       </c>
       <c r="DW4">
-        <v>0.333361096510279</v>
+        <v>0.3804600809954105</v>
       </c>
       <c r="DX4">
-        <v>0.3333513829362167</v>
+        <v>44.28289724555199</v>
       </c>
       <c r="DY4">
-        <v>1.332889586129894</v>
+        <v>38.19749013124418</v>
       </c>
       <c r="DZ4">
-        <v>1.331627146729713</v>
+        <v>14.52874420255705</v>
       </c>
       <c r="EA4">
-        <v>1.33333915687935</v>
+        <v>13.61250936593864</v>
       </c>
       <c r="EB4">
-        <v>5.333263176316446</v>
+        <v>16.32294514258756</v>
       </c>
       <c r="EC4">
-        <v>2.33248279195784</v>
+        <v>101.4798709365495</v>
       </c>
       <c r="ED4">
-        <v>0.3334740448720362</v>
+        <v>139.7736585582953</v>
       </c>
       <c r="EE4">
-        <v>7.333299272950529</v>
+        <v>0.3811306766243924</v>
       </c>
       <c r="EF4">
-        <v>0.3333509705751529</v>
+        <v>108.440752942954</v>
       </c>
       <c r="EG4">
-        <v>2.469913106978144</v>
+        <v>181.9541288948941</v>
       </c>
       <c r="EH4">
-        <v>0.3334516691641333</v>
+        <v>86.25679586399593</v>
       </c>
       <c r="EI4">
-        <v>0.3333522850422327</v>
+        <v>17.07337895230003</v>
       </c>
       <c r="EJ4">
-        <v>0.3335814394415693</v>
+        <v>52.43219150802046</v>
       </c>
       <c r="EK4">
-        <v>1.333396045352295</v>
+        <v>125.3511937158213</v>
       </c>
       <c r="EL4">
-        <v>0.3333509705751529</v>
+        <v>0.3950615291196897</v>
       </c>
       <c r="EM4">
-        <v>0.3333916888659877</v>
+        <v>27.47581924475521</v>
       </c>
       <c r="EN4">
-        <v>2.315422986742115</v>
+        <v>27.83618086073677</v>
       </c>
       <c r="EO4">
-        <v>3.333261762524755</v>
+        <v>49.49873368970242</v>
       </c>
       <c r="EP4">
-        <v>0.3335154717709554</v>
+        <v>312.0108884251362</v>
       </c>
       <c r="EQ4">
-        <v>3.331190529793636</v>
+        <v>53.15245740666006</v>
       </c>
       <c r="ER4">
-        <v>1.333884148177444</v>
+        <v>64.14899891114045</v>
       </c>
       <c r="ES4">
-        <v>0.3333513829362167</v>
+        <v>0.3746955854182246</v>
       </c>
       <c r="ET4">
-        <v>0.3333931920968041</v>
+        <v>83.24651805636027</v>
       </c>
       <c r="EU4">
-        <v>0.3333520257199432</v>
+        <v>192.3691282726299</v>
       </c>
       <c r="EV4">
-        <v>0.3333918239163545</v>
+        <v>228.0603429975555</v>
       </c>
       <c r="EW4">
-        <v>0.3333513829362167</v>
+        <v>0.3492632826562507</v>
       </c>
       <c r="EX4">
-        <v>0.3333531871662024</v>
+        <v>101.2400136632058</v>
       </c>
       <c r="EY4">
-        <v>0.3334509025365402</v>
+        <v>23.06094436969812</v>
       </c>
       <c r="EZ4">
-        <v>0.3335014286458648</v>
+        <v>56.78513490102704</v>
       </c>
       <c r="FA4">
-        <v>0.3334702164535542</v>
+        <v>0.3734851633067046</v>
       </c>
       <c r="FB4">
-        <v>0.3439509719548878</v>
+        <v>10.25679901524405</v>
       </c>
       <c r="FC4">
-        <v>3.333310055662725</v>
+        <v>0.3861993484994291</v>
       </c>
       <c r="FD4">
-        <v>0.3334111356958101</v>
+        <v>7.708428262014011</v>
       </c>
       <c r="FE4">
-        <v>0.3334747139940029</v>
+        <v>0.3931703288779332</v>
       </c>
       <c r="FF4">
-        <v>0.3333520028515727</v>
+        <v>33.76117671260142</v>
       </c>
       <c r="FG4">
-        <v>0.3333521814595418</v>
+        <v>0.3763968538209513</v>
       </c>
       <c r="FH4">
-        <v>0.3333921358543598</v>
+        <v>166.0331514940009</v>
       </c>
       <c r="FI4">
-        <v>0.3333902348026948</v>
+        <v>26.46505167433483</v>
       </c>
       <c r="FJ4">
-        <v>0.3336334243407207</v>
+        <v>318.3222429497989</v>
       </c>
       <c r="FK4">
-        <v>5.34779262157785</v>
+        <v>422.6484904423571</v>
       </c>
       <c r="FL4">
-        <v>0.3333913872678694</v>
+        <v>84.20800903733748</v>
       </c>
       <c r="FM4">
-        <v>0.3334141932374036</v>
+        <v>67.25003762390038</v>
       </c>
       <c r="FN4">
-        <v>0.3334754489615716</v>
+        <v>0.3400907990681871</v>
       </c>
       <c r="FO4">
-        <v>3.333303220038062</v>
+        <v>51.55961633680633</v>
       </c>
       <c r="FP4">
-        <v>17.333304469462</v>
+        <v>119.702839275692</v>
       </c>
       <c r="FQ4">
-        <v>0.3368431477836359</v>
+        <v>19.61198959676906</v>
       </c>
       <c r="FR4">
-        <v>0.3333531871662024</v>
+        <v>55.71840179808667</v>
       </c>
       <c r="FS4">
-        <v>0.3334155802823535</v>
+        <v>15.65340566973775</v>
       </c>
       <c r="FT4">
-        <v>4.331217330397217</v>
+        <v>0.347901899699863</v>
       </c>
       <c r="FU4">
-        <v>0.3333531871662024</v>
+        <v>0.3608110054842601</v>
       </c>
       <c r="FV4">
-        <v>5.333298368984564</v>
+        <v>0.382826139894247</v>
       </c>
       <c r="FW4">
-        <v>14.25601732185614</v>
+        <v>67.57454913100803</v>
       </c>
       <c r="FX4">
-        <v>3.344375913563312</v>
+        <v>0.3874432275524506</v>
       </c>
       <c r="FY4">
-        <v>0.3334794842530528</v>
+        <v>0.3985177264725803</v>
       </c>
       <c r="FZ4">
-        <v>0.3333513829362167</v>
+        <v>75.93587183491951</v>
       </c>
       <c r="GA4">
-        <v>0.3333522850422327</v>
+        <v>23.6970207853676</v>
       </c>
       <c r="GB4">
-        <v>3.043666908738238</v>
+        <v>248.4670056944874</v>
       </c>
       <c r="GC4">
-        <v>0.3333527335765886</v>
+        <v>107.9961913118976</v>
       </c>
       <c r="GD4">
-        <v>0.3333916888659877</v>
+        <v>0.3370442562485932</v>
       </c>
       <c r="GE4">
-        <v>2.33371811090992</v>
+        <v>216.920844698328</v>
       </c>
       <c r="GF4">
-        <v>0.3333513829362167</v>
+        <v>22.22375736343439</v>
       </c>
       <c r="GG4">
-        <v>0.3333509705751529</v>
+        <v>0.3786166054382223</v>
       </c>
       <c r="GH4">
-        <v>0.3334402169388927</v>
+        <v>0.3370442562485932</v>
       </c>
       <c r="GI4">
-        <v>0.3334157931502915</v>
+        <v>0.3370105306941446</v>
       </c>
       <c r="GJ4">
-        <v>0.3333513829362167</v>
+        <v>0.3487772719902518</v>
       </c>
       <c r="GK4">
-        <v>0.3334177010504213</v>
+        <v>217.658993787144</v>
       </c>
       <c r="GL4">
-        <v>0.3334031715733097</v>
+        <v>431.7893472411471</v>
       </c>
       <c r="GM4">
-        <v>0.3333522850422327</v>
+        <v>152.1875372331793</v>
       </c>
       <c r="GN4">
-        <v>0.3427503904269996</v>
+        <v>0.3526375121117837</v>
       </c>
       <c r="GO4">
-        <v>16.33329943096889</v>
+        <v>177.4688866324308</v>
       </c>
       <c r="GP4">
-        <v>3.34004799433508</v>
+        <v>8.160352057693117</v>
       </c>
       <c r="GQ4">
-        <v>0.3333928651426997</v>
+        <v>252.6200426961807</v>
       </c>
       <c r="GR4">
-        <v>0.3333931920968041</v>
+        <v>47.15465929208535</v>
       </c>
       <c r="GS4">
-        <v>0.3333521814595418</v>
+        <v>19.65665852723077</v>
+      </c>
+      <c r="GT4">
+        <v>0.3379129269440229</v>
+      </c>
+      <c r="GU4">
+        <v>0.3763252473670241</v>
+      </c>
+      <c r="GV4">
+        <v>4.241759786083115</v>
+      </c>
+      <c r="GW4">
+        <v>554.3531417845703</v>
+      </c>
+      <c r="GX4">
+        <v>0.4069924562979813</v>
+      </c>
+      <c r="GY4">
+        <v>376.8643922646705</v>
+      </c>
+      <c r="GZ4">
+        <v>0.3512578600831838</v>
+      </c>
+      <c r="HA4">
+        <v>61.80323962319127</v>
+      </c>
+      <c r="HB4">
+        <v>164.8084685949856</v>
+      </c>
+      <c r="HC4">
+        <v>24.3342238780421</v>
+      </c>
+      <c r="HD4">
+        <v>14.55872838030141</v>
+      </c>
+      <c r="HE4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="HF4">
+        <v>10.17608072764414</v>
+      </c>
+      <c r="HG4">
+        <v>196.7903255526951</v>
+      </c>
+      <c r="HH4">
+        <v>0.3399671738491054</v>
+      </c>
+      <c r="HI4">
+        <v>0.3814459016237508</v>
+      </c>
+      <c r="HJ4">
+        <v>142.8179982046626</v>
+      </c>
+      <c r="HK4">
+        <v>130.6097304141104</v>
+      </c>
+      <c r="HL4">
+        <v>34.00080986099014</v>
+      </c>
+      <c r="HM4">
+        <v>0.3675641700615884</v>
+      </c>
+      <c r="HN4">
+        <v>79.02714143337828</v>
+      </c>
+      <c r="HO4">
+        <v>46.00126211961352</v>
+      </c>
+      <c r="HP4">
+        <v>0.3407910928391061</v>
+      </c>
+      <c r="HQ4">
+        <v>152.0879797046165</v>
+      </c>
+      <c r="HR4">
+        <v>291.8417131073235</v>
+      </c>
+      <c r="HS4">
+        <v>6.249445967725706</v>
+      </c>
+      <c r="HT4">
+        <v>111.47877623109</v>
+      </c>
+      <c r="HU4">
+        <v>164.0505967858182</v>
+      </c>
+      <c r="HV4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="HW4">
+        <v>94.48947457998476</v>
+      </c>
+      <c r="HX4">
+        <v>71.255297815204</v>
+      </c>
+      <c r="HY4">
+        <v>258.9030978300908</v>
+      </c>
+      <c r="HZ4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="IA4">
+        <v>54.51431003129198</v>
+      </c>
+      <c r="IB4">
+        <v>58.93740091290029</v>
+      </c>
+      <c r="IC4">
+        <v>0.3800550531556574</v>
+      </c>
+      <c r="ID4">
+        <v>41.57030772413135</v>
+      </c>
+      <c r="IE4">
+        <v>0.3589682089375396</v>
+      </c>
+      <c r="IF4">
+        <v>0.3591032009277034</v>
+      </c>
+      <c r="IG4">
+        <v>103.9981208354271</v>
+      </c>
+      <c r="IH4">
+        <v>0.3533445808768604</v>
+      </c>
+      <c r="II4">
+        <v>96.34267582274548</v>
+      </c>
+      <c r="IJ4">
+        <v>28.63531270176274</v>
+      </c>
+      <c r="IK4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="IL4">
+        <v>0.3706070311942211</v>
+      </c>
+      <c r="IM4">
+        <v>0.3370442562485932</v>
+      </c>
+      <c r="IN4">
+        <v>57.29359155316797</v>
+      </c>
+      <c r="IO4">
+        <v>83.26099091709605</v>
+      </c>
+      <c r="IP4">
+        <v>63.12961619596544</v>
+      </c>
+      <c r="IQ4">
+        <v>45.72151559239892</v>
+      </c>
+      <c r="IR4">
+        <v>26.79890690269833</v>
+      </c>
+      <c r="IS4">
+        <v>186.1690665993555</v>
+      </c>
+      <c r="IT4">
+        <v>162.905178278685</v>
+      </c>
+      <c r="IU4">
+        <v>55.01958125821842</v>
+      </c>
+      <c r="IV4">
+        <v>0.3899250377107149</v>
+      </c>
+      <c r="IW4">
+        <v>20.0612054823506</v>
+      </c>
+      <c r="IX4">
+        <v>0.3739625983242292</v>
+      </c>
+      <c r="IY4">
+        <v>0.3405535907822593</v>
+      </c>
+      <c r="IZ4">
+        <v>0.3540445733733339</v>
+      </c>
+      <c r="JA4">
+        <v>10.64217087516993</v>
+      </c>
+      <c r="JB4">
+        <v>0.358706855131253</v>
+      </c>
+      <c r="JC4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="JD4">
+        <v>58.48902018158469</v>
+      </c>
+      <c r="JE4">
+        <v>185.0070012826593</v>
+      </c>
+      <c r="JF4">
+        <v>36.10253210534385</v>
+      </c>
+      <c r="JG4">
+        <v>280.8757732708582</v>
+      </c>
+      <c r="JH4">
+        <v>242.6545766446818</v>
+      </c>
+      <c r="JI4">
+        <v>9.489081334275349</v>
+      </c>
+      <c r="JJ4">
+        <v>0.3665889056624062</v>
+      </c>
+      <c r="JK4">
+        <v>118.842992691087</v>
+      </c>
+      <c r="JL4">
+        <v>83.55034819330976</v>
+      </c>
+      <c r="JM4">
+        <v>393.1657436655968</v>
+      </c>
+      <c r="JN4">
+        <v>46.99158692003269</v>
+      </c>
+      <c r="JO4">
+        <v>100.3369939124621</v>
+      </c>
+      <c r="JP4">
+        <v>159.5174354633174</v>
+      </c>
+      <c r="JQ4">
+        <v>207.1834581204409</v>
+      </c>
+      <c r="JR4">
+        <v>5.167848534325632</v>
+      </c>
+      <c r="JS4">
+        <v>133.9222751842343</v>
+      </c>
+      <c r="JT4">
+        <v>96.98900492242444</v>
+      </c>
+      <c r="JU4">
+        <v>110.1381457888067</v>
+      </c>
+      <c r="JV4">
+        <v>48.77423399969332</v>
+      </c>
+      <c r="JW4">
+        <v>0.3526748625390385</v>
+      </c>
+      <c r="JX4">
+        <v>0.3495254969752847</v>
+      </c>
+      <c r="JY4">
+        <v>558.2106960786365</v>
+      </c>
+      <c r="JZ4">
+        <v>31.34193511074741</v>
+      </c>
+      <c r="KA4">
+        <v>9.942569271998062</v>
+      </c>
+      <c r="KB4">
+        <v>0.357152945299673</v>
+      </c>
+      <c r="KC4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="KD4">
+        <v>57.88014491914662</v>
+      </c>
+      <c r="KE4">
+        <v>71.66327099334109</v>
+      </c>
+      <c r="KF4">
+        <v>23.82377760346855</v>
+      </c>
+      <c r="KG4">
+        <v>65.06147378627878</v>
+      </c>
+      <c r="KH4">
+        <v>161.4451599465719</v>
+      </c>
+      <c r="KI4">
+        <v>15.37946405669451</v>
+      </c>
+      <c r="KJ4">
+        <v>118.3996378860203</v>
+      </c>
+      <c r="KK4">
+        <v>0.3738509880743605</v>
+      </c>
+      <c r="KL4">
+        <v>93.27750602257356</v>
+      </c>
+      <c r="KM4">
+        <v>482.5096867776076</v>
+      </c>
+      <c r="KN4">
+        <v>0.3476481562217807</v>
+      </c>
+      <c r="KO4">
+        <v>206.9307800626676</v>
+      </c>
+      <c r="KP4">
+        <v>0.3623607266561059</v>
+      </c>
+      <c r="KQ4">
+        <v>63.64185011868604</v>
+      </c>
+      <c r="KR4">
+        <v>20.02126097162436</v>
+      </c>
+      <c r="KS4">
+        <v>199.893781117817</v>
+      </c>
+      <c r="KT4">
+        <v>33.73889777267725</v>
+      </c>
+      <c r="KU4">
+        <v>30.55504055204436</v>
+      </c>
+      <c r="KV4">
+        <v>28.82359562122008</v>
+      </c>
+      <c r="KW4">
+        <v>7.164200382304561</v>
+      </c>
+      <c r="KX4">
+        <v>96.44077307168303</v>
+      </c>
+      <c r="KY4">
+        <v>73.9620077337399</v>
+      </c>
+      <c r="KZ4">
+        <v>139.3906166747334</v>
+      </c>
+      <c r="LA4">
+        <v>416.4957043647614</v>
+      </c>
+      <c r="LB4">
+        <v>26.85586961531907</v>
+      </c>
+      <c r="LC4">
+        <v>0.3511175242923592</v>
+      </c>
+      <c r="LD4">
+        <v>22.98466087711082</v>
+      </c>
+      <c r="LE4">
+        <v>119.4105243029347</v>
+      </c>
+      <c r="LF4">
+        <v>0.3898243546819333</v>
+      </c>
+      <c r="LG4">
+        <v>188.1946278589025</v>
+      </c>
+      <c r="LH4">
+        <v>6.635971231379993</v>
+      </c>
+      <c r="LI4">
+        <v>163.8709349487061</v>
+      </c>
+      <c r="LJ4">
+        <v>70.73531985783748</v>
+      </c>
+      <c r="LK4">
+        <v>0.3631840838326089</v>
+      </c>
+      <c r="LL4">
+        <v>146.2404907889989</v>
+      </c>
+      <c r="LM4">
+        <v>33.60732151442929</v>
+      </c>
+      <c r="LN4">
+        <v>178.0612302328659</v>
+      </c>
+      <c r="LO4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="LP4">
+        <v>120.2791538357199</v>
+      </c>
+      <c r="LQ4">
+        <v>17.16332625212005</v>
+      </c>
+      <c r="LR4">
+        <v>0.3457949910539111</v>
+      </c>
+      <c r="LS4">
+        <v>19.96998355868786</v>
+      </c>
+      <c r="LT4">
+        <v>60.18180212017138</v>
+      </c>
+      <c r="LU4">
+        <v>16.72431688769773</v>
+      </c>
+      <c r="LV4">
+        <v>0.3376926058582375</v>
+      </c>
+      <c r="LW4">
+        <v>0.391643323302393</v>
+      </c>
+      <c r="LX4">
+        <v>127.6658633245261</v>
+      </c>
+      <c r="LY4">
+        <v>18.2607404835326</v>
+      </c>
+      <c r="LZ4">
+        <v>25.63303883123455</v>
+      </c>
+      <c r="MA4">
+        <v>19.69364050039261</v>
+      </c>
+      <c r="MB4">
+        <v>24.77789078764299</v>
+      </c>
+      <c r="MC4">
+        <v>116.4722350673034</v>
+      </c>
+      <c r="MD4">
+        <v>66.67151778343104</v>
+      </c>
+      <c r="ME4">
+        <v>0.3700981709435655</v>
+      </c>
+      <c r="MF4">
+        <v>238.222387162158</v>
+      </c>
+      <c r="MG4">
+        <v>15.51453177144268</v>
+      </c>
+      <c r="MH4">
+        <v>112.2351506696102</v>
+      </c>
+      <c r="MI4">
+        <v>29.52603656830337</v>
+      </c>
+      <c r="MJ4">
+        <v>108.9797804323197</v>
+      </c>
+      <c r="MK4">
+        <v>83.66079769987353</v>
+      </c>
+      <c r="ML4">
+        <v>8.195150574262312</v>
+      </c>
+      <c r="MM4">
+        <v>142.1207172859177</v>
+      </c>
+      <c r="MN4">
+        <v>31.47520529273283</v>
+      </c>
+      <c r="MO4">
+        <v>18.11559368414664</v>
+      </c>
+      <c r="MP4">
+        <v>179.7574813254682</v>
+      </c>
+      <c r="MQ4">
+        <v>0.3697772494889784</v>
+      </c>
+      <c r="MR4">
+        <v>246.0892541892708</v>
+      </c>
+      <c r="MS4">
+        <v>383.8064318361248</v>
+      </c>
+      <c r="MT4">
+        <v>0.4072012465173965</v>
+      </c>
+      <c r="MU4">
+        <v>4.759815303401392</v>
+      </c>
+      <c r="MV4">
+        <v>348.2318647891981</v>
+      </c>
+      <c r="MW4">
+        <v>63.5760933508545</v>
+      </c>
+      <c r="MX4">
+        <v>38.72067395768143</v>
+      </c>
+      <c r="MY4">
+        <v>151.5649862751319</v>
+      </c>
+      <c r="MZ4">
+        <v>0.373525607344486</v>
+      </c>
+      <c r="NA4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="NB4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="NC4">
+        <v>71.67635103970959</v>
+      </c>
+      <c r="ND4">
+        <v>38.13097492617883</v>
+      </c>
+      <c r="NE4">
+        <v>0.3665273429863314</v>
+      </c>
+      <c r="NF4">
+        <v>0.3873198725758418</v>
+      </c>
+      <c r="NG4">
+        <v>106.5302247041277</v>
+      </c>
+      <c r="NH4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="NI4">
+        <v>64.84144740145346</v>
+      </c>
+      <c r="NJ4">
+        <v>0.4005591499418144</v>
+      </c>
+      <c r="NK4">
+        <v>35.40569492663018</v>
+      </c>
+      <c r="NL4">
+        <v>38.35592762073607</v>
+      </c>
+      <c r="NM4">
+        <v>29.70063078497365</v>
+      </c>
+      <c r="NN4">
+        <v>48.15084159232758</v>
+      </c>
+      <c r="NO4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="NP4">
+        <v>8.878186088146077</v>
+      </c>
+      <c r="NQ4">
+        <v>0.355398765592845</v>
+      </c>
+      <c r="NR4">
+        <v>0.336716137456165</v>
+      </c>
+      <c r="NS4">
+        <v>0.3712497060629463</v>
+      </c>
+      <c r="NT4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="NU4">
+        <v>20.65826261430231</v>
+      </c>
+      <c r="NV4">
+        <v>0.3370105306941446</v>
+      </c>
+      <c r="NW4">
+        <v>111.7666259393655</v>
+      </c>
+      <c r="NX4">
+        <v>37.42021048272886</v>
+      </c>
+      <c r="NY4">
+        <v>37.2547582042999</v>
+      </c>
+      <c r="NZ4">
+        <v>190.6073327368195</v>
+      </c>
+      <c r="OA4">
+        <v>4.021633737735518</v>
+      </c>
+      <c r="OB4">
+        <v>0.4146313007189725</v>
+      </c>
+      <c r="OC4">
+        <v>69.18521059725296</v>
+      </c>
+      <c r="OD4">
+        <v>59.60903350132683</v>
+      </c>
+      <c r="OE4">
+        <v>0.3743809826904668</v>
+      </c>
+      <c r="OF4">
+        <v>0.3674468066015341</v>
+      </c>
+      <c r="OG4">
+        <v>0.3414952740243152</v>
+      </c>
+      <c r="OH4">
+        <v>0.3577468232764928</v>
+      </c>
+      <c r="OI4">
+        <v>74.13084237676964</v>
+      </c>
+      <c r="OJ4">
+        <v>0.3491528538436408</v>
+      </c>
+      <c r="OK4">
+        <v>0.3934343528407772</v>
       </c>
     </row>
   </sheetData>
